--- a/Feature_Importance/LogReg_Raw.xlsx
+++ b/Feature_Importance/LogReg_Raw.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hridaybhambhvani/Desktop/Medical School/Valar/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hridaybhambhvani/Github/Baras_Reanalysis/Feature_Importance/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF78F3B8-5941-3645-84AB-AFC31DBA886F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D02AAB3-2AD8-B245-8BD6-D9A862C2DBCE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="16540" activeTab="5" xr2:uid="{2FBB42EB-3674-F548-9EE9-EA3F2C56578C}"/>
+    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="16540" xr2:uid="{2FBB42EB-3674-F548-9EE9-EA3F2C56578C}"/>
   </bookViews>
   <sheets>
     <sheet name="NucMorphFeat" sheetId="1" r:id="rId1"/>
@@ -33,187 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="332">
-  <si>
-    <t>$Area.um.2_Max</t>
-  </si>
-  <si>
-    <t>$Area.um.2_Min</t>
-  </si>
-  <si>
-    <t>$Area.um.2_Mean</t>
-  </si>
-  <si>
-    <t>$Area.um.2_CoV</t>
-  </si>
-  <si>
-    <t>$Length.um_Max</t>
-  </si>
-  <si>
-    <t>$Length.um_Min</t>
-  </si>
-  <si>
-    <t>$Length.um_Mean</t>
-  </si>
-  <si>
-    <t>$Length.um_CoV</t>
-  </si>
-  <si>
-    <t>$Circularity_Max</t>
-  </si>
-  <si>
-    <t>$Circularity_Min</t>
-  </si>
-  <si>
-    <t>$Circularity_Mean</t>
-  </si>
-  <si>
-    <t>$Circularity_CoV</t>
-  </si>
-  <si>
-    <t>$Solidity_Max</t>
-  </si>
-  <si>
-    <t>$Solidity_Min</t>
-  </si>
-  <si>
-    <t>$Solidity_Mean</t>
-  </si>
-  <si>
-    <t>$Solidity_CoV</t>
-  </si>
-  <si>
-    <t>$Max.diameter.um_Max</t>
-  </si>
-  <si>
-    <t>$Max.diameter.um_Min</t>
-  </si>
-  <si>
-    <t>$Max.diameter.um_Mean</t>
-  </si>
-  <si>
-    <t>$Max.diameter.um_CoV</t>
-  </si>
-  <si>
-    <t>$Min.diameter.um_Max</t>
-  </si>
-  <si>
-    <t>$Min.diameter.um_Min</t>
-  </si>
-  <si>
-    <t>$Min.diameter.um_Mean</t>
-  </si>
-  <si>
-    <t>$Min.diameter.um_CoV</t>
-  </si>
-  <si>
-    <t>$chullLength_Max</t>
-  </si>
-  <si>
-    <t>$chullLength_Min</t>
-  </si>
-  <si>
-    <t>$chullLength_Mean</t>
-  </si>
-  <si>
-    <t>$chullLength_CoV</t>
-  </si>
-  <si>
-    <t>$chullArea_Max</t>
-  </si>
-  <si>
-    <t>$chullArea_Min</t>
-  </si>
-  <si>
-    <t>$chullArea_Mean</t>
-  </si>
-  <si>
-    <t>$chullArea_CoV</t>
-  </si>
-  <si>
-    <t>$elongation_Max</t>
-  </si>
-  <si>
-    <t>$elongation_Min</t>
-  </si>
-  <si>
-    <t>$elongation_Mean</t>
-  </si>
-  <si>
-    <t>$elongation_CoV</t>
-  </si>
-  <si>
-    <t>$FD_Max</t>
-  </si>
-  <si>
-    <t>$FD_Min</t>
-  </si>
-  <si>
-    <t>$FD_Mean</t>
-  </si>
-  <si>
-    <t>$FD_CoV</t>
-  </si>
-  <si>
-    <t>$convexity_Max</t>
-  </si>
-  <si>
-    <t>$convexity_Min</t>
-  </si>
-  <si>
-    <t>$convexity_Mean</t>
-  </si>
-  <si>
-    <t>$convexity_CoV</t>
-  </si>
-  <si>
-    <t>$curvMeanStat</t>
-  </si>
-  <si>
-    <t>$curvMinStat</t>
-  </si>
-  <si>
-    <t>$curvMaxStat</t>
-  </si>
-  <si>
-    <t>$curvStdStat</t>
-  </si>
-  <si>
-    <t>$n_protrusion_Max</t>
-  </si>
-  <si>
-    <t>$n_protrusion_Min</t>
-  </si>
-  <si>
-    <t>$n_protrusion_Mean</t>
-  </si>
-  <si>
-    <t>$n_protrusion_CoV</t>
-  </si>
-  <si>
-    <t>$n_indentation_Max</t>
-  </si>
-  <si>
-    <t>$n_indentation_Min</t>
-  </si>
-  <si>
-    <t>$n_indentation_Mean</t>
-  </si>
-  <si>
-    <t>$n_indentation_CoV</t>
-  </si>
-  <si>
-    <t>$MOI_Max</t>
-  </si>
-  <si>
-    <t>$MOI_Min</t>
-  </si>
-  <si>
-    <t>$MOI_Mean</t>
-  </si>
-  <si>
-    <t>$MOI_CoV</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="268">
   <si>
     <t>%</t>
   </si>
@@ -257,12 +77,6 @@
     <t>Circularity_CoV</t>
   </si>
   <si>
-    <t>Solidity_Max</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
     <t>Solidity_Min</t>
   </si>
   <si>
@@ -374,9 +188,6 @@
     <t>n_protrusion_Max</t>
   </si>
   <si>
-    <t>n_protrusion_Min</t>
-  </si>
-  <si>
     <t>n_protrusion_Mean</t>
   </si>
   <si>
@@ -384,9 +195,6 @@
   </si>
   <si>
     <t>n_indentation_Max</t>
-  </si>
-  <si>
-    <t>n_indentation_Min</t>
   </si>
   <si>
     <t>n_indentation_Mean</t>
@@ -1391,3454 +1199,1096 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E264010-AFF0-8F42-999E-AE8DB543919E}">
-  <dimension ref="B1:H300"/>
+  <dimension ref="B1:I213"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScale="142" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" zoomScale="142" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="25.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C1" s="2" t="s">
-        <v>124</v>
+        <v>60</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>125</v>
+        <v>61</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>126</v>
+        <v>62</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2">
-        <v>1.0000579999999999</v>
-      </c>
-      <c r="D2">
-        <v>0.99934319999999999</v>
-      </c>
-      <c r="E2">
-        <v>1.0009049999999999</v>
+        <v>36</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2.012859E-11</v>
+      </c>
+      <c r="D2" s="1">
+        <v>7.8495529999999997E-19</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1.4594639999999999E-4</v>
       </c>
       <c r="F2">
+        <v>3.1451159999999999E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="1">
+        <v>4.7469250000000003E-6</v>
+      </c>
+      <c r="D3" s="1">
+        <v>8.2402919999999995E-10</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1.2218639999999999E-2</v>
+      </c>
+      <c r="F3">
+        <v>3.4791459999999998E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="1">
+        <v>44385.48</v>
+      </c>
+      <c r="D4" s="1">
+        <v>31.8263</v>
+      </c>
+      <c r="E4" s="1">
+        <v>99613120</v>
+      </c>
+      <c r="F4">
+        <v>4.8064580000000004E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4.1244439999999999E-14</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4.8127909999999997E-24</v>
+      </c>
+      <c r="E5" s="1">
+        <v>5.5889110000000001E-5</v>
+      </c>
+      <c r="F5">
+        <v>5.6742470000000003E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="1">
+        <v>8.8312649999999996E-3</v>
+      </c>
+      <c r="D6">
+        <v>2.398194E-4</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.23495260000000001</v>
+      </c>
+      <c r="F6">
+        <v>6.7846160000000003E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3964951000</v>
+      </c>
+      <c r="D7" s="1">
+        <v>373.18419999999998</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1.687091E+17</v>
+      </c>
+      <c r="F7">
+        <v>9.8534160000000003E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8">
+        <v>0.95371640000000002</v>
+      </c>
+      <c r="D8">
+        <v>0.91857759999999999</v>
+      </c>
+      <c r="E8">
+        <v>0.98896680000000003</v>
+      </c>
+      <c r="F8">
+        <v>1.1590120000000001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9">
+        <v>0.92076959999999997</v>
+      </c>
+      <c r="D9">
+        <v>0.86050789999999999</v>
+      </c>
+      <c r="E9">
+        <v>0.9836549</v>
+      </c>
+      <c r="F9">
+        <v>1.5241040000000001E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1">
+        <v>6.2819260000000001E-5</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1.482995E-8</v>
+      </c>
+      <c r="E10">
+        <v>0.12114750000000001</v>
+      </c>
+      <c r="F10">
+        <v>1.6713349999999998E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11">
+        <v>0.96596859999999996</v>
+      </c>
+      <c r="D11">
+        <v>0.93819580000000002</v>
+      </c>
+      <c r="E11">
+        <v>0.99354520000000002</v>
+      </c>
+      <c r="F11">
+        <v>1.7493410000000001E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="1">
+        <v>5.5288170000000002E-5</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1.071104E-8</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.1315125</v>
+      </c>
+      <c r="F12">
+        <v>1.8013890000000001E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13">
+        <v>0.99314639999999998</v>
+      </c>
+      <c r="D13">
+        <v>0.98712489999999997</v>
+      </c>
+      <c r="E13">
+        <v>0.99889550000000005</v>
+      </c>
+      <c r="F13">
+        <v>2.2389340000000001E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14">
+        <v>1.428949E-4</v>
+      </c>
+      <c r="D14" s="1">
+        <v>3.4737750000000003E-8</v>
+      </c>
+      <c r="E14">
+        <v>0.29102410000000001</v>
+      </c>
+      <c r="F14">
+        <v>2.864334E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15">
+        <v>0.55025919999999995</v>
+      </c>
+      <c r="D15">
+        <v>0.31473449999999997</v>
+      </c>
+      <c r="E15">
+        <v>0.95409160000000004</v>
+      </c>
+      <c r="F15">
+        <v>3.4234359999999998E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16">
+        <v>0.54931430000000003</v>
+      </c>
+      <c r="D16">
+        <v>0.3133283</v>
+      </c>
+      <c r="E16">
+        <v>0.95507169999999997</v>
+      </c>
+      <c r="F16">
+        <v>3.4608939999999998E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17">
+        <v>18.1891289</v>
+      </c>
+      <c r="D17">
+        <v>1.12256925</v>
+      </c>
+      <c r="E17">
+        <v>308.46292649999998</v>
+      </c>
+      <c r="F17">
+        <v>4.2181498999999997E-2</v>
+      </c>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>4.4308019999999997E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2.4489669999999998E-39</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1.2094249999999999E-81</v>
+      </c>
+      <c r="E19" s="1">
+        <v>35.71651</v>
+      </c>
+      <c r="F19">
+        <v>6.4964919999999995E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20">
+        <v>0.50083169999999999</v>
+      </c>
+      <c r="D20">
+        <v>0.23375609999999999</v>
+      </c>
+      <c r="E20">
+        <v>1.0614889999999999</v>
+      </c>
+      <c r="F20">
+        <v>7.2395210000000002E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="1">
+        <v>3.876268E+33</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1.482789E-3</v>
+      </c>
+      <c r="E21" s="1">
+        <v>2.0430089999999999E+72</v>
+      </c>
+      <c r="F21">
+        <v>7.7995809999999999E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>0.69961490000000004</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.45966400000000002</v>
+      </c>
+      <c r="E22">
+        <v>1.041253</v>
+      </c>
+      <c r="F22">
+        <v>8.5150589999999998E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>9.6283750000000001E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24">
+        <v>0.3767916</v>
+      </c>
+      <c r="D24">
+        <v>0.1101173</v>
+      </c>
+      <c r="E24">
+        <v>1.1368210000000001</v>
+      </c>
+      <c r="F24">
+        <v>9.9720349999999999E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.11380743</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="1">
+        <v>769.74104</v>
+      </c>
+      <c r="D26">
+        <v>0.15817011</v>
+      </c>
+      <c r="E26" s="1">
+        <v>5013432</v>
+      </c>
+      <c r="F26">
+        <v>0.12879941</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="1">
+        <v>3432.107</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.19784060000000001</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1159930000</v>
+      </c>
+      <c r="F27">
+        <v>0.14087740000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="1">
+        <v>8.1300350000000005E-14</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1.4720019999999999E-32</v>
+      </c>
+      <c r="E28">
+        <v>100531.67959</v>
+      </c>
+      <c r="F28">
+        <v>0.1612991</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29">
+        <v>1.0068558999999999</v>
+      </c>
+      <c r="D29">
+        <v>0.99653219999999998</v>
+      </c>
+      <c r="E29">
+        <v>1.0173232000000001</v>
+      </c>
+      <c r="F29">
+        <v>0.1888173645</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30">
+        <v>0.72046549999999998</v>
+      </c>
+      <c r="D30">
+        <v>0.42951739999999999</v>
+      </c>
+      <c r="E30">
+        <v>1.1892450000000001</v>
+      </c>
+      <c r="F30">
+        <v>0.2030351</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="1">
+        <v>8.2537210000000001E-27</v>
+      </c>
+      <c r="D31" s="1">
+        <v>2.097025E-74</v>
+      </c>
+      <c r="E31" s="1">
+        <v>56154340000</v>
+      </c>
+      <c r="F31">
+        <v>0.208288476</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32">
+        <v>0.77170369999999999</v>
+      </c>
+      <c r="D32">
+        <v>0.50985550000000002</v>
+      </c>
+      <c r="E32">
+        <v>1.155513</v>
+      </c>
+      <c r="F32">
+        <v>0.2125399</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="1">
+        <v>2.152289E+290</v>
+      </c>
+      <c r="D33" s="1">
+        <v>7.4033939999999997E-139</v>
+      </c>
+      <c r="E33" t="s">
+        <v>39</v>
+      </c>
+      <c r="F33">
+        <v>0.23547309999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34">
+        <v>3.526999</v>
+      </c>
+      <c r="D34">
+        <v>0.43563259999999998</v>
+      </c>
+      <c r="E34">
+        <v>28.761542200000001</v>
+      </c>
+      <c r="F34">
+        <v>0.23617253999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35">
+        <v>0.81183170000000004</v>
+      </c>
+      <c r="D35">
+        <v>0.56609359999999997</v>
+      </c>
+      <c r="E35">
+        <v>1.1452150000000001</v>
+      </c>
+      <c r="F35">
+        <v>0.24337819999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36">
+        <v>1.3437726999999999</v>
+      </c>
+      <c r="D36">
+        <v>0.81578318999999999</v>
+      </c>
+      <c r="E36">
+        <v>2.2364519999999999</v>
+      </c>
+      <c r="F36">
+        <v>0.24775295</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37">
+        <v>0.9972086</v>
+      </c>
+      <c r="D37">
+        <v>0.99172819999999995</v>
+      </c>
+      <c r="E37">
+        <v>1.001676</v>
+      </c>
+      <c r="F37">
+        <v>0.26205889999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>32</v>
+      </c>
+      <c r="C38">
+        <v>0.43840040000000002</v>
+      </c>
+      <c r="D38">
+        <v>8.1693360000000007E-2</v>
+      </c>
+      <c r="E38">
+        <v>1.573917</v>
+      </c>
+      <c r="F38">
+        <v>0.26295990000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39">
+        <v>0.41543150000000001</v>
+      </c>
+      <c r="D39">
+        <v>6.4456959999999994E-2</v>
+      </c>
+      <c r="E39">
+        <v>1.748775</v>
+      </c>
+      <c r="F39">
+        <v>0.28760170000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>37</v>
+      </c>
+      <c r="C40">
+        <v>0.12849669999999999</v>
+      </c>
+      <c r="D40">
+        <v>1.6214980000000001E-3</v>
+      </c>
+      <c r="E40">
+        <v>4.1436330000000003</v>
+      </c>
+      <c r="F40">
+        <v>0.28805770000000003</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41">
+        <v>325.05678329</v>
+      </c>
+      <c r="D41">
+        <v>7.9923540999999997E-3</v>
+      </c>
+      <c r="E41" s="1">
+        <v>19803550</v>
+      </c>
+      <c r="F41">
+        <v>0.28986489999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42">
+        <v>1.1815180000000001</v>
+      </c>
+      <c r="D42">
+        <v>0.85070619999999997</v>
+      </c>
+      <c r="E42">
+        <v>1.6406153000000001</v>
+      </c>
+      <c r="F42">
+        <v>0.31684772999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43">
+        <v>2.346349</v>
+      </c>
+      <c r="D43">
+        <v>0.374249</v>
+      </c>
+      <c r="E43">
+        <v>14.623426500000001</v>
+      </c>
+      <c r="F43">
+        <v>0.35944910000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44">
+        <v>0.94247309999999995</v>
+      </c>
+      <c r="D44">
+        <v>0.82062440000000003</v>
+      </c>
+      <c r="E44">
+        <v>1.076276</v>
+      </c>
+      <c r="F44">
+        <v>0.38882129999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45">
+        <v>0.49477690000000002</v>
+      </c>
+      <c r="D45">
+        <v>9.6357639999999994E-2</v>
+      </c>
+      <c r="E45">
+        <v>2.4424429999999999</v>
+      </c>
+      <c r="F45">
+        <v>0.38952930000000002</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>53</v>
+      </c>
+      <c r="C46">
+        <v>1.4548494999999999</v>
+      </c>
+      <c r="D46">
+        <v>0.57996780000000003</v>
+      </c>
+      <c r="E46">
+        <v>3.5645011000000002</v>
+      </c>
+      <c r="F46">
+        <v>0.41347159500000003</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" s="1">
+        <v>5.219545E+16</v>
+      </c>
+      <c r="D47" s="1">
+        <v>3.3489889999999998E-25</v>
+      </c>
+      <c r="E47" s="1">
+        <v>1.456746E+60</v>
+      </c>
+      <c r="F47">
+        <v>0.43559940000000003</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48">
+        <v>0.98402429999999996</v>
+      </c>
+      <c r="D48">
+        <v>0.93927970000000005</v>
+      </c>
+      <c r="E48">
+        <v>1.0283739999999999</v>
+      </c>
+      <c r="F48">
+        <v>0.48262430000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>21</v>
+      </c>
+      <c r="C49">
+        <v>0.98648360000000002</v>
+      </c>
+      <c r="D49">
+        <v>0.93964060000000005</v>
+      </c>
+      <c r="E49">
+        <v>1.026959</v>
+      </c>
+      <c r="F49">
+        <v>0.53471729999999995</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="1">
+        <v>0.99777950000000004</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0.98899440000000005</v>
+      </c>
+      <c r="E50" s="1">
+        <v>1.005207</v>
+      </c>
+      <c r="F50">
+        <v>0.57928270000000004</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>17</v>
+      </c>
+      <c r="C51">
+        <v>0.99472369999999999</v>
+      </c>
+      <c r="D51">
+        <v>0.96722560000000002</v>
+      </c>
+      <c r="E51">
+        <v>1.019412</v>
+      </c>
+      <c r="F51">
+        <v>0.68508610000000003</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
+        <v>54</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52" t="s">
+        <v>39</v>
+      </c>
+      <c r="F52">
+        <v>0.69405218700000004</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>29</v>
+      </c>
+      <c r="C53">
+        <v>0.99997990000000003</v>
+      </c>
+      <c r="D53">
+        <v>0.99982409999999999</v>
+      </c>
+      <c r="E53">
+        <v>1.0001040000000001</v>
+      </c>
+      <c r="F53">
+        <v>0.76452586199999994</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
+        <v>22</v>
+      </c>
+      <c r="C54">
+        <v>1.2282289</v>
+      </c>
+      <c r="D54">
+        <v>0.25808207999999999</v>
+      </c>
+      <c r="E54">
+        <v>6.1135970000000004</v>
+      </c>
+      <c r="F54">
+        <v>0.79761349999999998</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>47</v>
+      </c>
+      <c r="C55">
+        <v>1.1599535999999999</v>
+      </c>
+      <c r="D55">
+        <v>0.18973119999999999</v>
+      </c>
+      <c r="E55">
+        <v>7.7431749999999999</v>
+      </c>
+      <c r="F55">
+        <v>0.87417020000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
+        <v>2</v>
+      </c>
+      <c r="C56">
+        <v>0.99994170000000004</v>
+      </c>
+      <c r="D56">
+        <v>0.99909579999999998</v>
+      </c>
+      <c r="E56">
+        <v>1.0006572</v>
+      </c>
+      <c r="F56">
         <v>0.87687364000000001</v>
       </c>
-      <c r="H2">
-        <f t="shared" ref="H2:H33" si="0">IF(F2&lt;0.05,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3">
-        <v>1.4293577</v>
-      </c>
-      <c r="D3">
-        <v>0.96038115000000002</v>
-      </c>
-      <c r="E3">
-        <v>2.1755019999999998</v>
-      </c>
-      <c r="F3">
-        <v>8.5150589999999998E-2</v>
-      </c>
-      <c r="H3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4">
-        <v>1.016235</v>
-      </c>
-      <c r="D4">
-        <v>0.97240919999999997</v>
-      </c>
-      <c r="E4">
-        <v>1.064646</v>
-      </c>
-      <c r="F4">
-        <v>0.48262430000000001</v>
-      </c>
-      <c r="H4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5">
-        <v>2.4071357999999998</v>
-      </c>
-      <c r="D5">
-        <v>0.57182880000000003</v>
-      </c>
-      <c r="E5">
-        <v>15.514227999999999</v>
-      </c>
-      <c r="F5">
-        <v>0.28760170000000002</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6">
-        <v>1.0022249999999999</v>
-      </c>
-      <c r="D6">
-        <v>0.99482029999999999</v>
-      </c>
-      <c r="E6">
-        <v>1.011128</v>
-      </c>
-      <c r="F6">
-        <v>0.57928270000000004</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7">
-        <v>1.3879915</v>
-      </c>
-      <c r="D7">
-        <v>0.840869596</v>
-      </c>
-      <c r="E7">
-        <v>2.3281939999999999</v>
-      </c>
-      <c r="F7">
-        <v>0.2030351</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8">
-        <v>1.0610382</v>
-      </c>
-      <c r="D8">
-        <v>0.92913002</v>
-      </c>
-      <c r="E8">
-        <v>1.2185839999999999</v>
-      </c>
-      <c r="F8">
-        <v>0.38882129999999998</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1.9158760000000001E-17</v>
-      </c>
-      <c r="D9" s="1">
-        <v>6.8646159999999994E-61</v>
-      </c>
-      <c r="E9" s="1">
-        <v>2.9859759999999999E+24</v>
-      </c>
-      <c r="F9">
-        <v>0.43559940000000003</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C10">
-        <v>1.299138E-3</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1.9946410000000001E-7</v>
-      </c>
-      <c r="E10">
-        <v>6.3223070000000003</v>
-      </c>
-      <c r="F10">
-        <v>0.12879941</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C11">
-        <v>3.076386E-3</v>
-      </c>
-      <c r="D11" s="1">
-        <v>5.0495990000000001E-8</v>
-      </c>
-      <c r="E11">
-        <v>125.11960000000001</v>
-      </c>
-      <c r="F11">
-        <v>0.28986489999999998</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C12" s="1">
-        <v>2.579801E-34</v>
-      </c>
-      <c r="D12" s="1">
-        <v>4.8947410000000003E-73</v>
-      </c>
-      <c r="E12" s="1">
-        <v>674.40470000000005</v>
-      </c>
-      <c r="F12">
-        <v>7.7995809999999999E-2</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C13" s="1">
-        <v>12300070000000</v>
-      </c>
-      <c r="D13" s="1">
-        <v>9.9471130000000006E-6</v>
-      </c>
-      <c r="E13" s="1">
-        <v>6.7934710000000002E+31</v>
-      </c>
-      <c r="F13">
-        <v>0.1612991</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>79</v>
-      </c>
-      <c r="C14">
-        <v>1.005304</v>
-      </c>
-      <c r="D14">
-        <v>0.980958</v>
-      </c>
-      <c r="E14">
-        <v>1.0338849999999999</v>
-      </c>
-      <c r="F14">
-        <v>0.68508610000000003</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>80</v>
-      </c>
-      <c r="C15">
-        <v>2.0211128</v>
-      </c>
-      <c r="D15">
-        <v>0.40942606399999998</v>
-      </c>
-      <c r="E15">
-        <v>10.378</v>
-      </c>
-      <c r="F15">
-        <v>0.38952930000000002</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>81</v>
-      </c>
-      <c r="C16">
-        <v>1.2317823999999999</v>
-      </c>
-      <c r="D16">
-        <v>0.87319882000000004</v>
-      </c>
-      <c r="E16">
-        <v>1.766492</v>
-      </c>
-      <c r="F16">
-        <v>0.24337819999999999</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>83</v>
-      </c>
-      <c r="C17">
-        <v>1.0137020000000001</v>
-      </c>
-      <c r="D17">
-        <v>0.97374870000000002</v>
-      </c>
-      <c r="E17">
-        <v>1.0642370000000001</v>
-      </c>
-      <c r="F17">
-        <v>0.53471729999999995</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>84</v>
-      </c>
-      <c r="C18">
-        <v>0.81418049999999997</v>
-      </c>
-      <c r="D18">
-        <v>0.16356979999999999</v>
-      </c>
-      <c r="E18">
-        <v>3.874736</v>
-      </c>
-      <c r="F18">
-        <v>0.79761349999999998</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
-        <v>85</v>
-      </c>
-      <c r="C19">
-        <v>1.002991</v>
-      </c>
-      <c r="D19">
-        <v>0.58262190000000003</v>
-      </c>
-      <c r="E19">
-        <v>1.749198</v>
-      </c>
-      <c r="F19">
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
+        <v>59</v>
+      </c>
+      <c r="C57">
+        <v>1.0001770000000001</v>
+      </c>
+      <c r="D57">
+        <v>0.9965214</v>
+      </c>
+      <c r="E57">
+        <v>1.0035679</v>
+      </c>
+      <c r="F57">
+        <v>0.91465733650000003</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
+        <v>23</v>
+      </c>
+      <c r="C58">
+        <v>0.99701819999999997</v>
+      </c>
+      <c r="D58">
+        <v>0.57169044000000002</v>
+      </c>
+      <c r="E58">
+        <v>1.7163790000000001</v>
+      </c>
+      <c r="F58">
         <v>0.99143919999999996</v>
       </c>
-      <c r="H19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
-        <v>87</v>
-      </c>
-      <c r="C20">
-        <v>1.002799</v>
-      </c>
-      <c r="D20">
-        <v>0.99832719999999997</v>
-      </c>
-      <c r="E20">
-        <v>1.0083409999999999</v>
-      </c>
-      <c r="F20">
-        <v>0.26205889999999998</v>
-      </c>
-      <c r="H20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
-        <v>91</v>
-      </c>
-      <c r="C21">
-        <v>1.0000199999999999</v>
-      </c>
-      <c r="D21">
-        <v>0.9998956</v>
-      </c>
-      <c r="E21">
-        <v>1.000176</v>
-      </c>
-      <c r="F21">
-        <v>0.76452586199999994</v>
-      </c>
-      <c r="H21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
-        <v>94</v>
-      </c>
-      <c r="C22">
-        <v>2.2810199999999998</v>
-      </c>
-      <c r="D22">
-        <v>0.63535759999999997</v>
-      </c>
-      <c r="E22">
-        <v>12.240897</v>
-      </c>
-      <c r="F22">
-        <v>0.26295990000000002</v>
-      </c>
-      <c r="H22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
-        <v>95</v>
-      </c>
-      <c r="C23">
-        <v>2.6539869700000001</v>
-      </c>
-      <c r="D23">
-        <v>0.8796458184</v>
-      </c>
-      <c r="E23">
-        <v>9.0812279999999994</v>
-      </c>
-      <c r="F23">
-        <v>9.9720349999999999E-2</v>
-      </c>
-      <c r="H23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
-        <v>99</v>
-      </c>
-      <c r="C24">
-        <v>7.7822998999999999</v>
-      </c>
-      <c r="D24">
-        <v>0.241334141</v>
-      </c>
-      <c r="E24">
-        <v>616.71367799999996</v>
-      </c>
-      <c r="F24">
-        <v>0.28805770000000003</v>
-      </c>
-      <c r="H24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
-        <v>100</v>
-      </c>
-      <c r="C25" s="1">
-        <v>2.913662E-4</v>
-      </c>
-      <c r="D25" s="1">
-        <v>8.6212100000000003E-10</v>
-      </c>
-      <c r="E25" s="1">
-        <v>5.0545749999999998</v>
-      </c>
-      <c r="F25">
-        <v>0.14087740000000001</v>
-      </c>
-      <c r="H25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
-        <v>102</v>
-      </c>
-      <c r="C26" s="1">
-        <v>4.6462159999999998E-291</v>
-      </c>
-      <c r="D26" s="1">
-        <v>0</v>
-      </c>
-      <c r="E26" s="1">
-        <v>1.3507320000000001E+138</v>
-      </c>
-      <c r="F26">
-        <v>0.23547309999999999</v>
-      </c>
-      <c r="H26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
-        <v>103</v>
-      </c>
-      <c r="C27" s="1">
-        <v>1.2115749999999999E+26</v>
-      </c>
-      <c r="D27" s="1">
-        <v>1.7808059999999999E-11</v>
-      </c>
-      <c r="E27" s="1">
-        <v>4.7686590000000002E+73</v>
-      </c>
-      <c r="F27">
-        <v>0.208288476</v>
-      </c>
-      <c r="H27">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
-        <v>105</v>
-      </c>
-      <c r="C28">
-        <v>1.9966786999999999</v>
-      </c>
-      <c r="D28">
-        <v>0.9420733</v>
-      </c>
-      <c r="E28">
-        <v>4.2779629999999997</v>
-      </c>
-      <c r="F28">
-        <v>7.2395210000000002E-2</v>
-      </c>
-      <c r="H28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
-        <v>107</v>
-      </c>
-      <c r="C29" s="1">
-        <v>4.0833549999999998E+38</v>
-      </c>
-      <c r="D29">
-        <v>2.7998249999999999E-2</v>
-      </c>
-      <c r="E29" s="1">
-        <v>8.268393E+80</v>
-      </c>
-      <c r="F29">
-        <v>6.4964919999999995E-2</v>
-      </c>
-      <c r="H29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
-        <v>109</v>
-      </c>
-      <c r="C30">
-        <v>0.86210350000000002</v>
-      </c>
-      <c r="D30">
-        <v>0.12914600000000001</v>
-      </c>
-      <c r="E30">
-        <v>5.2706140000000001</v>
-      </c>
-      <c r="F30">
-        <v>0.87417020000000001</v>
-      </c>
-      <c r="H30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
-        <v>110</v>
-      </c>
-      <c r="C31">
-        <v>0.84636920000000004</v>
-      </c>
-      <c r="D31">
-        <v>0.60952740000000005</v>
-      </c>
-      <c r="E31">
-        <v>1.175494</v>
-      </c>
-      <c r="F31">
-        <v>0.31684772999999999</v>
-      </c>
-      <c r="H31">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
-        <v>111</v>
-      </c>
-      <c r="C32">
-        <v>0.28352719999999998</v>
-      </c>
-      <c r="D32">
-        <v>3.4768649999999998E-2</v>
-      </c>
-      <c r="E32">
-        <v>2.2955130000000001</v>
-      </c>
-      <c r="F32">
-        <v>0.23617253999999999</v>
-      </c>
-      <c r="H32">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
-        <v>112</v>
-      </c>
-      <c r="C33">
-        <v>0.74417350000000004</v>
-      </c>
-      <c r="D33">
-        <v>0.4471367</v>
-      </c>
-      <c r="E33">
-        <v>1.225816</v>
-      </c>
-      <c r="F33">
-        <v>0.24775295</v>
-      </c>
-      <c r="H33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B34" t="s">
-        <v>114</v>
-      </c>
-      <c r="C34">
-        <v>0.42619410000000002</v>
-      </c>
-      <c r="D34">
-        <v>6.8383429999999995E-2</v>
-      </c>
-      <c r="E34">
-        <v>2.672018</v>
-      </c>
-      <c r="F34">
-        <v>0.35944910000000002</v>
-      </c>
-      <c r="H34">
-        <f t="shared" ref="H34:H61" si="1">IF(F34&lt;0.05,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B35" t="s">
-        <v>115</v>
-      </c>
-      <c r="C35">
-        <v>1.2958342</v>
-      </c>
-      <c r="D35">
-        <v>0.86541659999999998</v>
-      </c>
-      <c r="E35">
-        <v>1.9613400000000001</v>
-      </c>
-      <c r="F35">
-        <v>0.2125399</v>
-      </c>
-      <c r="H35">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B36" t="s">
-        <v>116</v>
-      </c>
-      <c r="C36">
-        <v>0.68735630000000003</v>
-      </c>
-      <c r="D36">
-        <v>0.28054420000000002</v>
-      </c>
-      <c r="E36">
-        <v>1.724234</v>
-      </c>
-      <c r="F36">
-        <v>0.41347159500000003</v>
-      </c>
-      <c r="H36">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B37" t="s">
-        <v>118</v>
-      </c>
-      <c r="C37" t="s">
-        <v>101</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37" t="s">
-        <v>101</v>
-      </c>
-      <c r="F37">
-        <v>0.69405218700000004</v>
-      </c>
-      <c r="H37">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B38" t="s">
-        <v>119</v>
-      </c>
-      <c r="C38">
-        <v>0.99319080000000004</v>
-      </c>
-      <c r="D38">
-        <v>0.98297179999999995</v>
-      </c>
-      <c r="E38">
-        <v>1.0034799999999999</v>
-      </c>
-      <c r="F38">
-        <v>0.1888173645</v>
-      </c>
-      <c r="H38">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B39" t="s">
-        <v>121</v>
-      </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="E39">
-        <v>1</v>
-      </c>
-      <c r="F39">
-        <v>9.6283750000000001E-2</v>
-      </c>
-      <c r="H39">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B40" t="s">
-        <v>122</v>
-      </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="E40">
-        <v>1</v>
-      </c>
-      <c r="F40">
-        <v>0.11380743</v>
-      </c>
-      <c r="H40">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B41" t="s">
-        <v>123</v>
-      </c>
-      <c r="C41">
-        <v>0.99982300000000002</v>
-      </c>
-      <c r="D41">
-        <v>0.99644480000000002</v>
-      </c>
-      <c r="E41">
-        <v>1.0034909999999999</v>
-      </c>
-      <c r="F41">
-        <v>0.91465733650000003</v>
-      </c>
-      <c r="H41">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B42" t="s">
-        <v>69</v>
-      </c>
-      <c r="C42" s="1">
-        <v>15918.69</v>
-      </c>
-      <c r="D42">
-        <v>8.2543976319999999</v>
-      </c>
-      <c r="E42" s="1">
-        <v>67431100</v>
-      </c>
-      <c r="F42">
-        <v>1.6713349999999998E-2</v>
-      </c>
-      <c r="H42">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B43" t="s">
-        <v>72</v>
-      </c>
-      <c r="C43" s="1">
-        <v>2.5220990000000002E-10</v>
-      </c>
-      <c r="D43" s="1">
-        <v>5.9273619999999998E-18</v>
-      </c>
-      <c r="E43" s="1">
-        <v>2.6796419999999999E-3</v>
-      </c>
-      <c r="F43">
-        <v>9.8534160000000003E-3</v>
-      </c>
-      <c r="H43">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B44" t="s">
-        <v>73</v>
-      </c>
-      <c r="C44" s="1">
-        <v>24245700000000</v>
-      </c>
-      <c r="D44" s="1">
-        <v>17892.57</v>
-      </c>
-      <c r="E44" s="1">
-        <v>2.0777970000000001E+23</v>
-      </c>
-      <c r="F44">
-        <v>5.6742470000000003E-3</v>
-      </c>
-      <c r="H44">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B45" t="s">
-        <v>74</v>
-      </c>
-      <c r="C45" t="s">
-        <v>75</v>
-      </c>
-      <c r="D45" t="s">
-        <v>75</v>
-      </c>
-      <c r="E45" t="s">
-        <v>75</v>
-      </c>
-      <c r="F45">
-        <v>5.1285290000000004E-4</v>
-      </c>
-      <c r="H45">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B46" t="s">
-        <v>82</v>
-      </c>
-      <c r="C46">
-        <v>6998.1522052999999</v>
-      </c>
-      <c r="D46">
-        <v>3.4361418499999998</v>
-      </c>
-      <c r="E46" s="1">
-        <v>28787130</v>
-      </c>
-      <c r="F46">
-        <v>2.864334E-2</v>
-      </c>
-      <c r="H46">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B47" t="s">
-        <v>86</v>
-      </c>
-      <c r="C47" s="1">
-        <v>210662.7</v>
-      </c>
-      <c r="D47">
-        <v>81.842159022999994</v>
-      </c>
-      <c r="E47" s="1">
-        <v>1213549000</v>
-      </c>
-      <c r="F47">
-        <v>3.4791459999999998E-3</v>
-      </c>
-      <c r="H47">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B48" t="s">
-        <v>88</v>
-      </c>
-      <c r="C48">
-        <v>1.0860481</v>
-      </c>
-      <c r="D48">
-        <v>1.0166166999999999</v>
-      </c>
-      <c r="E48">
-        <v>1.162104</v>
-      </c>
-      <c r="F48">
-        <v>1.5241040000000001E-2</v>
-      </c>
-      <c r="H48">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B49" t="s">
-        <v>89</v>
-      </c>
-      <c r="C49">
-        <v>1.0352304000000001</v>
-      </c>
-      <c r="D49">
-        <v>1.0064968000000001</v>
-      </c>
-      <c r="E49">
-        <v>1.065876</v>
-      </c>
-      <c r="F49">
-        <v>1.7493410000000001E-2</v>
-      </c>
-      <c r="H49">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B50" t="s">
-        <v>90</v>
-      </c>
-      <c r="C50" s="1">
-        <v>18087.05</v>
-      </c>
-      <c r="D50">
-        <v>7.6038371170000003</v>
-      </c>
-      <c r="E50" s="1">
-        <v>93361580</v>
-      </c>
-      <c r="F50">
-        <v>1.8013890000000001E-2</v>
-      </c>
-      <c r="H50">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B51" t="s">
-        <v>92</v>
-      </c>
-      <c r="C51">
-        <v>1.0485298000000001</v>
-      </c>
-      <c r="D51">
-        <v>1.0111562000000001</v>
-      </c>
-      <c r="E51">
-        <v>1.0886400000000001</v>
-      </c>
-      <c r="F51">
-        <v>1.1590120000000001E-2</v>
-      </c>
-      <c r="H51">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B52" t="s">
-        <v>93</v>
-      </c>
-      <c r="C52">
-        <v>1.0069009</v>
-      </c>
-      <c r="D52">
-        <v>1.0011057000000001</v>
-      </c>
-      <c r="E52">
-        <v>1.0130429999999999</v>
-      </c>
-      <c r="F52">
-        <v>2.2389340000000001E-2</v>
-      </c>
-      <c r="H52">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B53" t="s">
-        <v>96</v>
-      </c>
-      <c r="C53" s="1">
-        <v>2.2529889999999999E-5</v>
-      </c>
-      <c r="D53" s="1">
-        <v>1.003884E-8</v>
-      </c>
-      <c r="E53" s="1">
-        <v>3.142056E-2</v>
-      </c>
-      <c r="F53">
-        <v>4.8064580000000004E-3</v>
-      </c>
-      <c r="H53">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B54" t="s">
-        <v>97</v>
-      </c>
-      <c r="C54" s="1">
-        <v>113.2341</v>
-      </c>
-      <c r="D54" s="1">
-        <v>4.2561780000000002</v>
-      </c>
-      <c r="E54">
-        <v>4169.8043341000002</v>
-      </c>
-      <c r="F54">
-        <v>6.7846160000000003E-3</v>
-      </c>
-      <c r="H54">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B55" t="s">
-        <v>98</v>
-      </c>
-      <c r="C55" s="1">
-        <v>49680570000</v>
-      </c>
-      <c r="D55" s="1">
-        <v>6851.83</v>
-      </c>
-      <c r="E55" s="1">
-        <v>1.273958E+18</v>
-      </c>
-      <c r="F55">
-        <v>3.1451159999999999E-3</v>
-      </c>
-      <c r="H55">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B56" t="s">
-        <v>104</v>
-      </c>
-      <c r="C56">
-        <v>1.8173253</v>
-      </c>
-      <c r="D56">
-        <v>1.0481174</v>
-      </c>
-      <c r="E56">
-        <v>3.1772809999999998</v>
-      </c>
-      <c r="F56">
-        <v>3.4234359999999998E-2</v>
-      </c>
-      <c r="H56">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B57" t="s">
-        <v>106</v>
-      </c>
-      <c r="C57">
-        <v>1.8204513</v>
-      </c>
-      <c r="D57">
-        <v>1.0470417999999999</v>
-      </c>
-      <c r="E57">
-        <v>3.191541</v>
-      </c>
-      <c r="F57">
-        <v>3.4608939999999998E-2</v>
-      </c>
-      <c r="H57">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B58" t="s">
-        <v>108</v>
-      </c>
-      <c r="C58">
-        <v>5.4977890000000001E-2</v>
-      </c>
-      <c r="D58">
-        <v>3.2418809999999998E-3</v>
-      </c>
-      <c r="E58">
-        <v>0.89081359999999998</v>
-      </c>
-      <c r="F58">
-        <v>4.2181498999999997E-2</v>
-      </c>
-      <c r="H58">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B59" t="s">
-        <v>113</v>
-      </c>
-      <c r="C59" t="s">
-        <v>75</v>
-      </c>
-      <c r="D59" t="s">
-        <v>75</v>
-      </c>
-      <c r="E59" t="s">
-        <v>75</v>
-      </c>
-      <c r="F59">
-        <v>5.1285290000000004E-4</v>
-      </c>
-      <c r="H59">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B60" t="s">
-        <v>117</v>
-      </c>
-      <c r="C60" t="s">
-        <v>75</v>
-      </c>
-      <c r="D60" t="s">
-        <v>75</v>
-      </c>
-      <c r="E60" t="s">
-        <v>75</v>
-      </c>
-      <c r="F60">
-        <v>5.1285290000000004E-4</v>
-      </c>
-      <c r="H60">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B61" t="s">
-        <v>120</v>
-      </c>
-      <c r="C61">
-        <v>1</v>
-      </c>
-      <c r="D61">
-        <v>1</v>
-      </c>
-      <c r="E61">
-        <v>1</v>
-      </c>
-      <c r="F61">
-        <v>4.4308019999999997E-2</v>
-      </c>
-      <c r="H61">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B62" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C63">
-        <v>2.5</v>
-      </c>
-      <c r="D63" t="s">
-        <v>60</v>
-      </c>
-      <c r="E63">
-        <v>97.5</v>
-      </c>
-      <c r="F63" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B64" t="s">
-        <v>61</v>
-      </c>
-      <c r="C64">
-        <v>1.7473829999999999</v>
-      </c>
-      <c r="D64">
-        <v>1.1367814000000001</v>
-      </c>
-      <c r="E64">
-        <v>2.6829809999999998</v>
-      </c>
-      <c r="F64">
-        <v>1.0266249999999999E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B66" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C67">
-        <v>2.5</v>
-      </c>
-      <c r="D67" t="s">
-        <v>60</v>
-      </c>
-      <c r="E67">
-        <v>97.5</v>
-      </c>
-      <c r="F67" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B68" t="s">
-        <v>61</v>
-      </c>
-      <c r="C68">
-        <v>0.39610040000000002</v>
-      </c>
-      <c r="D68">
-        <v>6.7351729999999999E-2</v>
-      </c>
-      <c r="E68">
-        <v>2.1900010000000001</v>
-      </c>
-      <c r="F68">
-        <v>0.29452374999999997</v>
-      </c>
-    </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B70" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C71">
-        <v>2.5</v>
-      </c>
-      <c r="D71" t="s">
-        <v>60</v>
-      </c>
-      <c r="E71">
-        <v>97.5</v>
-      </c>
-      <c r="F71" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B72" t="s">
-        <v>61</v>
-      </c>
-      <c r="C72">
-        <v>1.1443639999999999</v>
-      </c>
-      <c r="D72">
-        <v>0.3111524</v>
-      </c>
-      <c r="E72">
-        <v>4.0780500000000002</v>
-      </c>
-      <c r="F72">
-        <v>0.83624880000000001</v>
-      </c>
-    </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B74" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C75">
-        <v>2.5</v>
-      </c>
-      <c r="D75" t="s">
-        <v>60</v>
-      </c>
-      <c r="E75">
-        <v>97.5</v>
-      </c>
-      <c r="F75" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B76" t="s">
-        <v>61</v>
-      </c>
-      <c r="C76">
-        <v>0.98491459999999997</v>
-      </c>
-      <c r="D76">
-        <v>0.28041050000000001</v>
-      </c>
-      <c r="E76">
-        <v>2.7805770000000001</v>
-      </c>
-      <c r="F76">
-        <v>0.97896249999999996</v>
-      </c>
-    </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B78" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C79">
-        <v>2.5</v>
-      </c>
-      <c r="D79" t="s">
-        <v>60</v>
-      </c>
-      <c r="E79">
-        <v>97.5</v>
-      </c>
-      <c r="F79" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B80" t="s">
-        <v>61</v>
-      </c>
-      <c r="C80">
-        <v>1.5080480000000001</v>
-      </c>
-      <c r="D80">
-        <v>0.74031259999999999</v>
-      </c>
-      <c r="E80">
-        <v>2.9238960000000001</v>
-      </c>
-      <c r="F80">
-        <v>0.23364789999999999</v>
-      </c>
-    </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B82" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C83">
-        <v>2.5</v>
-      </c>
-      <c r="D83" t="s">
-        <v>60</v>
-      </c>
-      <c r="E83">
-        <v>97.5</v>
-      </c>
-      <c r="F83" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B84" t="s">
-        <v>61</v>
-      </c>
-      <c r="C84">
-        <v>0.1118156</v>
-      </c>
-      <c r="D84">
-        <v>1.421561E-3</v>
-      </c>
-      <c r="E84">
-        <v>7.8632920000000004</v>
-      </c>
-      <c r="F84">
-        <v>0.31461220000000001</v>
-      </c>
-    </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B86" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C87">
-        <v>2.5</v>
-      </c>
-      <c r="D87" t="s">
-        <v>60</v>
-      </c>
-      <c r="E87">
-        <v>97.5</v>
-      </c>
-      <c r="F87" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B88" t="s">
-        <v>61</v>
-      </c>
-      <c r="C88">
-        <v>0.57054939999999998</v>
-      </c>
-      <c r="D88">
-        <v>3.9861809999999998E-2</v>
-      </c>
-      <c r="E88">
-        <v>7.574427</v>
-      </c>
-      <c r="F88">
-        <v>0.67327170000000003</v>
-      </c>
-    </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B90" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C91">
-        <v>2.5</v>
-      </c>
-      <c r="D91" t="s">
-        <v>60</v>
-      </c>
-      <c r="E91">
-        <v>97.5</v>
-      </c>
-      <c r="F91" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B92" t="s">
-        <v>61</v>
-      </c>
-      <c r="C92" s="1">
-        <v>0.1087026</v>
-      </c>
-      <c r="D92">
-        <v>9.941287E-3</v>
-      </c>
-      <c r="E92" s="1">
-        <v>0.98891499999999999</v>
-      </c>
-      <c r="F92">
-        <v>5.7546859999999998E-2</v>
-      </c>
-    </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B94" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C95">
-        <v>2.5</v>
-      </c>
-      <c r="D95" t="s">
-        <v>60</v>
-      </c>
-      <c r="E95">
-        <v>97.5</v>
-      </c>
-      <c r="F95" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B96" t="s">
-        <v>61</v>
-      </c>
-      <c r="C96" s="1">
-        <v>4.635992E+16</v>
-      </c>
-      <c r="D96" s="1">
-        <v>1.6761630000000001E-24</v>
-      </c>
-      <c r="E96" s="1">
-        <v>2.166823E+59</v>
-      </c>
-      <c r="F96">
-        <v>0.42862689999999998</v>
-      </c>
-    </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B98" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C99">
-        <v>2.5</v>
-      </c>
-      <c r="D99" t="s">
-        <v>60</v>
-      </c>
-      <c r="E99">
-        <v>97.5</v>
-      </c>
-      <c r="F99" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B100" t="s">
-        <v>61</v>
-      </c>
-      <c r="C100">
-        <v>8.2061371839999993</v>
-      </c>
-      <c r="D100" s="1">
-        <v>1.1415219999999999</v>
-      </c>
-      <c r="E100">
-        <v>64.684376</v>
-      </c>
-      <c r="F100">
-        <v>3.9714689999999997E-2</v>
-      </c>
-    </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B102" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C103">
-        <v>2.5</v>
-      </c>
-      <c r="D103" t="s">
-        <v>60</v>
-      </c>
-      <c r="E103">
-        <v>97.5</v>
-      </c>
-      <c r="F103" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B104" t="s">
-        <v>61</v>
-      </c>
-      <c r="C104" s="1">
-        <v>278902400</v>
-      </c>
-      <c r="D104" s="1">
-        <v>277.04379999999998</v>
-      </c>
-      <c r="E104" s="1">
-        <v>957602500000000</v>
-      </c>
-      <c r="F104">
-        <v>7.9442339999999997E-3</v>
-      </c>
-    </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B106" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C107">
-        <v>2.5</v>
-      </c>
-      <c r="D107" t="s">
-        <v>60</v>
-      </c>
-      <c r="E107">
-        <v>97.5</v>
-      </c>
-      <c r="F107" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="108" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B108" t="s">
-        <v>61</v>
-      </c>
-      <c r="C108" s="1">
-        <v>5.1146709999999998E-2</v>
-      </c>
-      <c r="D108" s="1">
-        <v>3.7623560000000001E-3</v>
-      </c>
-      <c r="E108" s="1">
-        <v>0.58560619999999997</v>
-      </c>
-      <c r="F108">
-        <v>2.0322907000000001E-2</v>
-      </c>
-    </row>
-    <row r="110" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B110" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="111" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C111">
-        <v>2.5</v>
-      </c>
-      <c r="D111" t="s">
-        <v>60</v>
-      </c>
-      <c r="E111">
-        <v>97.5</v>
-      </c>
-      <c r="F111" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="112" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B112" t="s">
-        <v>61</v>
-      </c>
-      <c r="C112">
-        <v>1.785714</v>
-      </c>
-      <c r="D112">
-        <v>1.2930330000000001</v>
-      </c>
-      <c r="E112">
-        <v>2.491161</v>
-      </c>
-      <c r="F112">
-        <v>5.1285290000000004E-4</v>
-      </c>
-    </row>
-    <row r="114" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B114" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="115" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C115">
-        <v>2.5</v>
-      </c>
-      <c r="D115" t="s">
-        <v>60</v>
-      </c>
-      <c r="E115">
-        <v>97.5</v>
-      </c>
-      <c r="F115" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="116" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B116" t="s">
-        <v>61</v>
-      </c>
-      <c r="C116">
-        <v>42.640595851</v>
-      </c>
-      <c r="D116" s="1">
-        <v>0.1259554</v>
-      </c>
-      <c r="E116">
-        <v>18513.889599999999</v>
-      </c>
-      <c r="F116">
-        <v>0.21194550000000001</v>
-      </c>
-    </row>
-    <row r="118" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B118" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="119" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C119">
-        <v>2.5</v>
-      </c>
-      <c r="D119" t="s">
-        <v>60</v>
-      </c>
-      <c r="E119">
-        <v>97.5</v>
-      </c>
-      <c r="F119" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="120" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B120" t="s">
-        <v>61</v>
-      </c>
-      <c r="C120" s="1">
-        <v>2.751276E+33</v>
-      </c>
-      <c r="D120" s="1">
-        <v>2.863726E-3</v>
-      </c>
-      <c r="E120" s="1">
-        <v>5.1991160000000001E+71</v>
-      </c>
-      <c r="F120">
-        <v>7.582469E-2</v>
-      </c>
-    </row>
-    <row r="122" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B122" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="123" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C123">
-        <v>2.5</v>
-      </c>
-      <c r="D123" t="s">
-        <v>60</v>
-      </c>
-      <c r="E123">
-        <v>97.5</v>
-      </c>
-      <c r="F123" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="124" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B124" t="s">
-        <v>61</v>
-      </c>
-      <c r="C124" s="1">
-        <v>0.45401150000000001</v>
-      </c>
-      <c r="D124" s="1">
-        <v>6.3802689999999995E-2</v>
-      </c>
-      <c r="E124" s="1">
-        <v>3.1130469999999999</v>
-      </c>
-      <c r="F124">
-        <v>0.42337920000000001</v>
-      </c>
-    </row>
-    <row r="126" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B126" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="127" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C127">
-        <v>2.5</v>
-      </c>
-      <c r="D127" t="s">
-        <v>60</v>
-      </c>
-      <c r="E127">
-        <v>97.5</v>
-      </c>
-      <c r="F127" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="128" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B128" t="s">
-        <v>61</v>
-      </c>
-      <c r="C128">
-        <v>1.540465</v>
-      </c>
-      <c r="D128">
-        <v>0.68018500000000004</v>
-      </c>
-      <c r="E128">
-        <v>3.3225009999999999</v>
-      </c>
-      <c r="F128">
-        <v>0.27876709999999999</v>
-      </c>
-    </row>
-    <row r="130" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B130" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="131" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C131">
-        <v>2.5</v>
-      </c>
-      <c r="D131" t="s">
-        <v>60</v>
-      </c>
-      <c r="E131">
-        <v>97.5</v>
-      </c>
-      <c r="F131" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="132" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B132" t="s">
-        <v>61</v>
-      </c>
-      <c r="C132">
-        <v>0.2155031</v>
-      </c>
-      <c r="D132">
-        <v>1.5907510000000001E-3</v>
-      </c>
-      <c r="E132">
-        <v>26.656030000000001</v>
-      </c>
-      <c r="F132">
-        <v>0.53268649999999995</v>
-      </c>
-    </row>
-    <row r="134" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B134" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="135" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C135">
-        <v>2.5</v>
-      </c>
-      <c r="D135" t="s">
-        <v>60</v>
-      </c>
-      <c r="E135">
-        <v>97.5</v>
-      </c>
-      <c r="F135" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="136" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B136" t="s">
-        <v>61</v>
-      </c>
-      <c r="C136">
-        <v>0.38908759999999998</v>
-      </c>
-      <c r="D136">
-        <v>2.809762E-2</v>
-      </c>
-      <c r="E136">
-        <v>4.9457040000000001</v>
-      </c>
-      <c r="F136">
-        <v>0.47176760000000001</v>
-      </c>
-    </row>
-    <row r="138" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B138" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="139" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C139">
-        <v>2.5</v>
-      </c>
-      <c r="D139" t="s">
-        <v>60</v>
-      </c>
-      <c r="E139">
-        <v>97.5</v>
-      </c>
-      <c r="F139" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="140" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B140" t="s">
-        <v>61</v>
-      </c>
-      <c r="C140">
-        <v>0.11548890000000001</v>
-      </c>
-      <c r="D140">
-        <v>8.9896100000000003E-3</v>
-      </c>
-      <c r="E140" s="1">
-        <v>1.24396</v>
-      </c>
-      <c r="F140">
-        <v>8.4501060000000003E-2</v>
-      </c>
-    </row>
-    <row r="142" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B142" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="143" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C143">
-        <v>2.5</v>
-      </c>
-      <c r="D143" t="s">
-        <v>60</v>
-      </c>
-      <c r="E143">
-        <v>97.5</v>
-      </c>
-      <c r="F143" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="144" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B144" t="s">
-        <v>61</v>
-      </c>
-      <c r="C144">
-        <v>1.408703</v>
-      </c>
-      <c r="D144">
-        <v>0.58971709999999999</v>
-      </c>
-      <c r="E144">
-        <v>3.083555</v>
-      </c>
-      <c r="F144">
-        <v>0.40746169999999998</v>
-      </c>
-    </row>
-    <row r="146" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B146" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="147" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C147">
-        <v>2.5</v>
-      </c>
-      <c r="D147" t="s">
-        <v>60</v>
-      </c>
-      <c r="E147">
-        <v>97.5</v>
-      </c>
-      <c r="F147" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="148" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B148" t="s">
-        <v>61</v>
-      </c>
-      <c r="C148">
-        <v>2.6557300000000001</v>
-      </c>
-      <c r="D148">
-        <v>0.1298271</v>
-      </c>
-      <c r="E148">
-        <v>61.058920999999998</v>
-      </c>
-      <c r="F148">
-        <v>0.53065960000000001</v>
-      </c>
-    </row>
-    <row r="150" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B150" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="151" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C151">
-        <v>2.5</v>
-      </c>
-      <c r="D151" t="s">
-        <v>60</v>
-      </c>
-      <c r="E151">
-        <v>97.5</v>
-      </c>
-      <c r="F151" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="152" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B152" t="s">
-        <v>61</v>
-      </c>
-      <c r="C152">
-        <v>1.761147</v>
-      </c>
-      <c r="D152">
-        <v>0.13292699999999999</v>
-      </c>
-      <c r="E152">
-        <v>22.651368999999999</v>
-      </c>
-      <c r="F152">
-        <v>0.66375059999999997</v>
-      </c>
-    </row>
-    <row r="154" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B154" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="155" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C155">
-        <v>2.5</v>
-      </c>
-      <c r="D155" t="s">
-        <v>60</v>
-      </c>
-      <c r="E155">
-        <v>97.5</v>
-      </c>
-      <c r="F155" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="156" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B156" t="s">
-        <v>61</v>
-      </c>
-      <c r="C156" s="1">
-        <v>4.4829269999999997E-2</v>
-      </c>
-      <c r="D156">
-        <v>3.4122340000000001E-3</v>
-      </c>
-      <c r="E156" s="1">
-        <v>0.4809947</v>
-      </c>
-      <c r="F156">
-        <v>1.3503345E-2</v>
-      </c>
-    </row>
-    <row r="158" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B158" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="159" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C159">
-        <v>2.5</v>
-      </c>
-      <c r="D159" t="s">
-        <v>60</v>
-      </c>
-      <c r="E159">
-        <v>97.5</v>
-      </c>
-      <c r="F159" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="160" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B160" t="s">
-        <v>61</v>
-      </c>
-      <c r="C160">
-        <v>1.2873319999999999</v>
-      </c>
-      <c r="D160">
-        <v>0.6517425</v>
-      </c>
-      <c r="E160">
-        <v>2.4098419999999998</v>
-      </c>
-      <c r="F160">
-        <v>0.44380750000000002</v>
-      </c>
-    </row>
-    <row r="162" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B162" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="163" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C163">
-        <v>2.5</v>
-      </c>
-      <c r="D163" t="s">
-        <v>60</v>
-      </c>
-      <c r="E163">
-        <v>97.5</v>
-      </c>
-      <c r="F163" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="164" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B164" t="s">
-        <v>61</v>
-      </c>
-      <c r="C164">
-        <v>0.56463110000000005</v>
-      </c>
-      <c r="D164">
-        <v>0.21313289999999999</v>
-      </c>
-      <c r="E164">
-        <v>1.496429</v>
-      </c>
-      <c r="F164">
-        <v>0.24854559000000001</v>
-      </c>
-    </row>
-    <row r="166" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B166" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="167" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C167">
-        <v>2.5</v>
-      </c>
-      <c r="D167" t="s">
-        <v>60</v>
-      </c>
-      <c r="E167">
-        <v>97.5</v>
-      </c>
-      <c r="F167" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="168" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B168" t="s">
-        <v>61</v>
-      </c>
-      <c r="C168">
-        <v>0.5957093</v>
-      </c>
-      <c r="D168">
-        <v>0.22972010000000001</v>
-      </c>
-      <c r="E168">
-        <v>1.536673</v>
-      </c>
-      <c r="F168">
-        <v>0.28350243000000003</v>
-      </c>
-    </row>
-    <row r="170" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B170" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="171" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C171">
-        <v>2.5</v>
-      </c>
-      <c r="D171" t="s">
-        <v>60</v>
-      </c>
-      <c r="E171">
-        <v>97.5</v>
-      </c>
-      <c r="F171" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="172" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B172" t="s">
-        <v>61</v>
-      </c>
-      <c r="C172" s="1">
-        <v>0.1065088</v>
-      </c>
-      <c r="D172">
-        <v>9.3241590000000003E-3</v>
-      </c>
-      <c r="E172" s="1">
-        <v>1.016059</v>
-      </c>
-      <c r="F172">
-        <v>6.0064480000000003E-2</v>
-      </c>
-    </row>
-    <row r="174" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B174" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="175" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C175">
-        <v>2.5</v>
-      </c>
-      <c r="D175" t="s">
-        <v>60</v>
-      </c>
-      <c r="E175">
-        <v>97.5</v>
-      </c>
-      <c r="F175" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="176" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B176" t="s">
-        <v>61</v>
-      </c>
-      <c r="C176">
-        <v>1.737743</v>
-      </c>
-      <c r="D176">
-        <v>1.2016572999999999</v>
-      </c>
-      <c r="E176">
-        <v>2.5306340000000001</v>
-      </c>
-      <c r="F176">
-        <v>3.521775E-3</v>
-      </c>
-    </row>
-    <row r="178" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B178" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="179" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C179">
-        <v>2.5</v>
-      </c>
-      <c r="D179" t="s">
-        <v>60</v>
-      </c>
-      <c r="E179">
-        <v>97.5</v>
-      </c>
-      <c r="F179" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="180" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B180" t="s">
-        <v>61</v>
-      </c>
-      <c r="C180">
-        <v>0.9043641</v>
-      </c>
-      <c r="D180">
-        <v>0.49214210000000003</v>
-      </c>
-      <c r="E180">
-        <v>1.667664</v>
-      </c>
-      <c r="F180">
-        <v>0.74576569999999998</v>
-      </c>
-    </row>
-    <row r="182" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B182" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="183" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C183">
-        <v>2.5</v>
-      </c>
-      <c r="D183" t="s">
-        <v>60</v>
-      </c>
-      <c r="E183">
-        <v>97.5</v>
-      </c>
-      <c r="F183" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="184" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B184" t="s">
-        <v>61</v>
-      </c>
-      <c r="C184">
-        <v>0.99078250000000001</v>
-      </c>
-      <c r="D184">
-        <v>0.54991880000000004</v>
-      </c>
-      <c r="E184">
-        <v>1.7891509999999999</v>
-      </c>
-      <c r="F184">
-        <v>0.97535651999999995</v>
-      </c>
-    </row>
-    <row r="186" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B186" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="187" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C187">
-        <v>2.5</v>
-      </c>
-      <c r="D187" t="s">
-        <v>60</v>
-      </c>
-      <c r="E187">
-        <v>97.5</v>
-      </c>
-      <c r="F187" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="188" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B188" t="s">
-        <v>61</v>
-      </c>
-      <c r="C188">
-        <v>1.0153490000000001</v>
-      </c>
-      <c r="D188">
-        <v>0.32328220000000002</v>
-      </c>
-      <c r="E188">
-        <v>2.6127729999999998</v>
-      </c>
-      <c r="F188">
-        <v>0.97677259999999999</v>
-      </c>
-    </row>
-    <row r="190" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B190" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="191" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C191">
-        <v>2.5</v>
-      </c>
-      <c r="D191" t="s">
-        <v>60</v>
-      </c>
-      <c r="E191">
-        <v>97.5</v>
-      </c>
-      <c r="F191" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="192" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B192" t="s">
-        <v>61</v>
-      </c>
-      <c r="C192">
-        <v>4.4629809999999999E-2</v>
-      </c>
-      <c r="D192">
-        <v>4.3749339999999998E-4</v>
-      </c>
-      <c r="E192">
-        <v>2.9447459999999999</v>
-      </c>
-      <c r="F192">
-        <v>0.16482214000000001</v>
-      </c>
-    </row>
-    <row r="194" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B194" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="195" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C195">
-        <v>2.5</v>
-      </c>
-      <c r="D195" t="s">
-        <v>60</v>
-      </c>
-      <c r="E195">
-        <v>97.5</v>
-      </c>
-      <c r="F195" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="196" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B196" t="s">
-        <v>61</v>
-      </c>
-      <c r="C196" s="1">
-        <v>123.6889</v>
-      </c>
-      <c r="D196" s="1">
-        <v>6.8463469999999997</v>
-      </c>
-      <c r="E196" s="1">
-        <v>2777.1210000000001</v>
-      </c>
-      <c r="F196">
-        <v>1.5706990000000001E-3</v>
-      </c>
-    </row>
-    <row r="198" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B198" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="199" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C199">
-        <v>2.5</v>
-      </c>
-      <c r="D199" t="s">
-        <v>60</v>
-      </c>
-      <c r="E199">
-        <v>97.5</v>
-      </c>
-      <c r="F199" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="200" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B200" t="s">
-        <v>61</v>
-      </c>
-      <c r="C200" s="1">
-        <v>1.514296E-3</v>
-      </c>
-      <c r="D200" s="1">
-        <v>7.1930730000000001E-6</v>
-      </c>
-      <c r="E200">
-        <v>0.20519760000000001</v>
-      </c>
-      <c r="F200">
-        <v>1.2602212999999999E-2</v>
-      </c>
-    </row>
-    <row r="202" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B202" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="203" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C203">
-        <v>2.5</v>
-      </c>
-      <c r="D203" t="s">
-        <v>60</v>
-      </c>
-      <c r="E203">
-        <v>97.5</v>
-      </c>
-      <c r="F203" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="204" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B204" t="s">
-        <v>61</v>
-      </c>
-      <c r="C204" s="1">
-        <v>7.222029E-4</v>
-      </c>
-      <c r="D204" s="1">
-        <v>3.3200450000000002E-6</v>
-      </c>
-      <c r="E204" s="1">
-        <v>0.108575</v>
-      </c>
-      <c r="F204">
-        <v>6.1139419999999998E-3</v>
-      </c>
-    </row>
-    <row r="206" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B206" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="207" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C207">
-        <v>2.5</v>
-      </c>
-      <c r="D207" t="s">
-        <v>60</v>
-      </c>
-      <c r="E207">
-        <v>97.5</v>
-      </c>
-      <c r="F207" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="208" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B208" t="s">
-        <v>61</v>
-      </c>
-      <c r="C208">
-        <v>0.1864934</v>
-      </c>
-      <c r="D208">
-        <v>1.578826E-3</v>
-      </c>
-      <c r="E208">
-        <v>8.7326219999999992</v>
-      </c>
-      <c r="F208">
-        <v>0.42947540000000001</v>
-      </c>
-    </row>
-    <row r="210" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B210" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="211" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C211">
-        <v>2.5</v>
-      </c>
-      <c r="D211" t="s">
-        <v>60</v>
-      </c>
-      <c r="E211">
-        <v>97.5</v>
-      </c>
-      <c r="F211" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="212" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B212" t="s">
-        <v>61</v>
-      </c>
-      <c r="C212" s="1">
-        <v>10227.969999999999</v>
-      </c>
-      <c r="D212" s="1">
-        <v>0.31847180000000003</v>
-      </c>
-      <c r="E212" s="1">
-        <v>8270151000</v>
-      </c>
-      <c r="F212">
-        <v>0.1170663</v>
-      </c>
-    </row>
-    <row r="214" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B214" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="215" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C215">
-        <v>2.5</v>
-      </c>
-      <c r="D215" t="s">
-        <v>60</v>
-      </c>
-      <c r="E215">
-        <v>97.5</v>
-      </c>
-      <c r="F215" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="216" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B216" t="s">
-        <v>61</v>
-      </c>
-      <c r="C216" t="s">
-        <v>101</v>
-      </c>
-      <c r="D216" s="1">
-        <v>9.8957819999999993E-149</v>
-      </c>
-      <c r="E216" t="s">
-        <v>101</v>
-      </c>
-      <c r="F216">
-        <v>0.23510239999999999</v>
-      </c>
-    </row>
-    <row r="218" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B218" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="219" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C219">
-        <v>2.5</v>
-      </c>
-      <c r="D219" t="s">
-        <v>60</v>
-      </c>
-      <c r="E219">
-        <v>97.5</v>
-      </c>
-      <c r="F219" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="220" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B220" t="s">
-        <v>61</v>
-      </c>
-      <c r="C220" s="1">
-        <v>1.6658280000000001</v>
-      </c>
-      <c r="D220" s="1">
-        <v>1.189643</v>
-      </c>
-      <c r="E220" s="1">
-        <v>2.3553060000000001</v>
-      </c>
-      <c r="F220">
-        <v>3.3245710000000001E-3</v>
-      </c>
-    </row>
-    <row r="222" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B222" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="223" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C223">
-        <v>2.5</v>
-      </c>
-      <c r="D223" t="s">
-        <v>60</v>
-      </c>
-      <c r="E223">
-        <v>97.5</v>
-      </c>
-      <c r="F223" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="224" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B224" t="s">
-        <v>61</v>
-      </c>
-      <c r="C224">
-        <v>0.66017210000000004</v>
-      </c>
-      <c r="D224">
-        <v>0.25156620000000002</v>
-      </c>
-      <c r="E224">
-        <v>1.7453609999999999</v>
-      </c>
-      <c r="F224">
-        <v>0.39895112999999999</v>
-      </c>
-    </row>
-    <row r="226" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B226" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="227" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C227">
-        <v>2.5</v>
-      </c>
-      <c r="D227" t="s">
-        <v>60</v>
-      </c>
-      <c r="E227">
-        <v>97.5</v>
-      </c>
-      <c r="F227" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="228" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B228" t="s">
-        <v>61</v>
-      </c>
-      <c r="C228">
-        <v>0.7763738</v>
-      </c>
-      <c r="D228">
-        <v>0.29926350000000002</v>
-      </c>
-      <c r="E228">
-        <v>2.033992</v>
-      </c>
-      <c r="F228">
-        <v>0.60325456</v>
-      </c>
-    </row>
-    <row r="230" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B230" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="231" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C231">
-        <v>2.5</v>
-      </c>
-      <c r="D231" t="s">
-        <v>60</v>
-      </c>
-      <c r="E231">
-        <v>97.5</v>
-      </c>
-      <c r="F231" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="232" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B232" t="s">
-        <v>61</v>
-      </c>
-      <c r="C232">
-        <v>0.66115239999999997</v>
-      </c>
-      <c r="D232">
-        <v>0.25181239999999999</v>
-      </c>
-      <c r="E232">
-        <v>1.7489250000000001</v>
-      </c>
-      <c r="F232">
-        <v>0.40089624000000001</v>
-      </c>
-    </row>
-    <row r="234" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B234" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="235" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C235">
-        <v>2.5</v>
-      </c>
-      <c r="D235" t="s">
-        <v>60</v>
-      </c>
-      <c r="E235">
-        <v>97.5</v>
-      </c>
-      <c r="F235" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="236" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B236" t="s">
-        <v>61</v>
-      </c>
-      <c r="C236" s="1">
-        <v>0.33870040000000001</v>
-      </c>
-      <c r="D236">
-        <v>5.4937949999999999E-2</v>
-      </c>
-      <c r="E236" s="1">
-        <v>1.970628</v>
-      </c>
-      <c r="F236">
-        <v>0.23333412000000001</v>
-      </c>
-    </row>
-    <row r="238" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B238" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="239" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C239">
-        <v>2.5</v>
-      </c>
-      <c r="D239" t="s">
-        <v>60</v>
-      </c>
-      <c r="E239">
-        <v>97.5</v>
-      </c>
-      <c r="F239" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="240" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B240" t="s">
-        <v>61</v>
-      </c>
-      <c r="C240">
-        <v>4.2834703100000002</v>
-      </c>
-      <c r="D240">
-        <v>1.7373666800000001</v>
-      </c>
-      <c r="E240">
-        <v>11.002542</v>
-      </c>
-      <c r="F240">
-        <v>1.932029E-3</v>
-      </c>
-    </row>
-    <row r="242" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B242" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="243" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C243">
-        <v>2.5</v>
-      </c>
-      <c r="D243" t="s">
-        <v>60</v>
-      </c>
-      <c r="E243">
-        <v>97.5</v>
-      </c>
-      <c r="F243" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="244" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B244" t="s">
-        <v>61</v>
-      </c>
-      <c r="C244">
-        <v>1.6995889</v>
-      </c>
-      <c r="D244">
-        <v>0.84898859999999998</v>
-      </c>
-      <c r="E244">
-        <v>3.4147400000000001</v>
-      </c>
-      <c r="F244">
-        <v>0.13340250000000001</v>
-      </c>
-    </row>
-    <row r="246" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B246" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="247" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C247">
-        <v>2.5</v>
-      </c>
-      <c r="D247" t="s">
-        <v>60</v>
-      </c>
-      <c r="E247">
-        <v>97.5</v>
-      </c>
-      <c r="F247" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="248" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B248" t="s">
-        <v>61</v>
-      </c>
-      <c r="C248">
-        <v>2.6397550999999999</v>
-      </c>
-      <c r="D248">
-        <v>1.1514120000000001</v>
-      </c>
-      <c r="E248">
-        <v>6.2033310000000004</v>
-      </c>
-      <c r="F248">
-        <v>2.3332410000000001E-2</v>
-      </c>
-    </row>
-    <row r="250" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B250" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="251" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C251">
-        <v>2.5</v>
-      </c>
-      <c r="D251" t="s">
-        <v>60</v>
-      </c>
-      <c r="E251">
-        <v>97.5</v>
-      </c>
-      <c r="F251" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="252" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B252" t="s">
-        <v>61</v>
-      </c>
-      <c r="C252">
-        <v>2.8859436999999999</v>
-      </c>
-      <c r="D252">
-        <v>1.22638063</v>
-      </c>
-      <c r="E252">
-        <v>6.9869960000000004</v>
-      </c>
-      <c r="F252">
-        <v>1.6562150000000001E-2</v>
-      </c>
-    </row>
-    <row r="254" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B254" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="255" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C255">
-        <v>2.5</v>
-      </c>
-      <c r="D255" t="s">
-        <v>60</v>
-      </c>
-      <c r="E255">
-        <v>97.5</v>
-      </c>
-      <c r="F255" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="256" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B256" t="s">
-        <v>61</v>
-      </c>
-      <c r="C256">
-        <v>6.3489681999999998</v>
-      </c>
-      <c r="D256">
-        <v>0.73114219999999996</v>
-      </c>
-      <c r="E256">
-        <v>59.171114000000003</v>
-      </c>
-      <c r="F256">
-        <v>9.719034E-2</v>
-      </c>
-    </row>
-    <row r="258" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B258" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="259" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C259">
-        <v>2.5</v>
-      </c>
-      <c r="D259" t="s">
-        <v>60</v>
-      </c>
-      <c r="E259">
-        <v>97.5</v>
-      </c>
-      <c r="F259" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="260" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B260" t="s">
-        <v>61</v>
-      </c>
-      <c r="C260">
-        <v>1.785714</v>
-      </c>
-      <c r="D260">
-        <v>1.2930330000000001</v>
-      </c>
-      <c r="E260">
-        <v>2.491161</v>
-      </c>
-      <c r="F260">
-        <v>5.1285290000000004E-4</v>
-      </c>
-    </row>
-    <row r="262" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B262" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="263" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C263">
-        <v>2.5</v>
-      </c>
-      <c r="D263" t="s">
-        <v>60</v>
-      </c>
-      <c r="E263">
-        <v>97.5</v>
-      </c>
-      <c r="F263" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="264" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B264" t="s">
-        <v>61</v>
-      </c>
-      <c r="C264">
-        <v>2.3044213</v>
-      </c>
-      <c r="D264">
-        <v>1.2244451300000001</v>
-      </c>
-      <c r="E264">
-        <v>4.4397120000000001</v>
-      </c>
-      <c r="F264">
-        <v>1.07893E-2</v>
-      </c>
-    </row>
-    <row r="266" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B266" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="267" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C267">
-        <v>2.5</v>
-      </c>
-      <c r="D267" t="s">
-        <v>60</v>
-      </c>
-      <c r="E267">
-        <v>97.5</v>
-      </c>
-      <c r="F267" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="268" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B268" t="s">
-        <v>61</v>
-      </c>
-      <c r="C268">
-        <v>0.9377643</v>
-      </c>
-      <c r="D268">
-        <v>0.32555460000000003</v>
-      </c>
-      <c r="E268">
-        <v>2.708637</v>
-      </c>
-      <c r="F268">
-        <v>0.90498489999999998</v>
-      </c>
-    </row>
-    <row r="270" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B270" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="271" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C271">
-        <v>2.5</v>
-      </c>
-      <c r="D271" t="s">
-        <v>60</v>
-      </c>
-      <c r="E271">
-        <v>97.5</v>
-      </c>
-      <c r="F271" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="272" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B272" t="s">
-        <v>61</v>
-      </c>
-      <c r="C272">
-        <v>1.8913043</v>
-      </c>
-      <c r="D272">
-        <v>1.3305195000000001</v>
-      </c>
-      <c r="E272">
-        <v>2.7241119999999999</v>
-      </c>
-      <c r="F272">
-        <v>4.7282200000000002E-4</v>
-      </c>
-    </row>
-    <row r="274" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B274" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="275" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C275">
-        <v>2.5</v>
-      </c>
-      <c r="D275" t="s">
-        <v>60</v>
-      </c>
-      <c r="E275">
-        <v>97.5</v>
-      </c>
-      <c r="F275" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="276" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B276" t="s">
-        <v>61</v>
-      </c>
-      <c r="C276">
-        <v>1.785714</v>
-      </c>
-      <c r="D276">
-        <v>1.2930330000000001</v>
-      </c>
-      <c r="E276">
-        <v>2.491161</v>
-      </c>
-      <c r="F276">
-        <v>5.1285290000000004E-4</v>
-      </c>
-    </row>
-    <row r="278" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B278" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="279" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C279">
-        <v>2.5</v>
-      </c>
-      <c r="D279" t="s">
-        <v>60</v>
-      </c>
-      <c r="E279">
-        <v>97.5</v>
-      </c>
-      <c r="F279" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="280" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B280" t="s">
-        <v>61</v>
-      </c>
-      <c r="C280">
-        <v>1.743204</v>
-      </c>
-      <c r="D280">
-        <v>1.2371840000000001</v>
-      </c>
-      <c r="E280">
-        <v>2.4824139999999999</v>
-      </c>
-      <c r="F280">
-        <v>1.712706E-3</v>
-      </c>
-    </row>
-    <row r="282" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B282" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="283" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C283">
-        <v>2.5</v>
-      </c>
-      <c r="D283" t="s">
-        <v>60</v>
-      </c>
-      <c r="E283">
-        <v>97.5</v>
-      </c>
-      <c r="F283" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="284" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B284" t="s">
-        <v>61</v>
-      </c>
-      <c r="C284">
-        <v>1.9547045000000001</v>
-      </c>
-      <c r="D284">
-        <v>1.3754021999999999</v>
-      </c>
-      <c r="E284">
-        <v>2.816303</v>
-      </c>
-      <c r="F284">
-        <v>2.3697559999999999E-4</v>
-      </c>
-    </row>
-    <row r="286" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B286" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="287" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C287">
-        <v>2.5</v>
-      </c>
-      <c r="D287" t="s">
-        <v>60</v>
-      </c>
-      <c r="E287">
-        <v>97.5</v>
-      </c>
-      <c r="F287" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="288" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B288" t="s">
-        <v>61</v>
-      </c>
-      <c r="C288">
-        <v>1.352042</v>
-      </c>
-      <c r="D288">
-        <v>0.89730699999999997</v>
-      </c>
-      <c r="E288">
-        <v>2.0477609999999999</v>
-      </c>
-      <c r="F288">
-        <v>0.15063024999999999</v>
-      </c>
-    </row>
-    <row r="290" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B290" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="291" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C291">
-        <v>2.5</v>
-      </c>
-      <c r="D291" t="s">
-        <v>60</v>
-      </c>
-      <c r="E291">
-        <v>97.5</v>
-      </c>
-      <c r="F291" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="292" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B292" t="s">
-        <v>61</v>
-      </c>
-      <c r="C292">
-        <v>1.4495169999999999</v>
-      </c>
-      <c r="D292">
-        <v>0.980244</v>
-      </c>
-      <c r="E292">
-        <v>2.1403400000000001</v>
-      </c>
-      <c r="F292">
-        <v>6.1980590000000002E-2</v>
-      </c>
-    </row>
-    <row r="294" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B294" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="295" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C295">
-        <v>2.5</v>
-      </c>
-      <c r="D295" t="s">
-        <v>60</v>
-      </c>
-      <c r="E295">
-        <v>97.5</v>
-      </c>
-      <c r="F295" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="296" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B296" t="s">
-        <v>61</v>
-      </c>
-      <c r="C296">
-        <v>1.4621599999999999</v>
-      </c>
-      <c r="D296">
-        <v>0.98208119999999999</v>
-      </c>
-      <c r="E296">
-        <v>2.1893820000000002</v>
-      </c>
-      <c r="F296">
-        <v>6.2458470000000002E-2</v>
-      </c>
-    </row>
-    <row r="298" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B298" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="299" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C299">
-        <v>2.5</v>
-      </c>
-      <c r="D299" t="s">
-        <v>60</v>
-      </c>
-      <c r="E299">
-        <v>97.5</v>
-      </c>
-      <c r="F299" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="300" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B300" t="s">
-        <v>61</v>
-      </c>
-      <c r="C300">
-        <v>1.787536</v>
-      </c>
-      <c r="D300">
-        <v>1.2936466</v>
-      </c>
-      <c r="E300">
-        <v>2.4953159999999999</v>
-      </c>
-      <c r="F300">
-        <v>5.1307550000000005E-4</v>
-      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+    </row>
+    <row r="67" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+    </row>
+    <row r="69" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+    </row>
+    <row r="80" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+    </row>
+    <row r="119" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C119" s="2"/>
+      <c r="D119" s="2"/>
+      <c r="E119" s="2"/>
+      <c r="F119" s="2"/>
+    </row>
+    <row r="123" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D123" s="1"/>
+    </row>
+    <row r="124" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C124" s="1"/>
+      <c r="D124" s="1"/>
+      <c r="E124" s="1"/>
+    </row>
+    <row r="129" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C129" s="1"/>
+      <c r="D129" s="1"/>
+      <c r="E129" s="1"/>
+    </row>
+    <row r="130" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C130" s="1"/>
+      <c r="D130" s="1"/>
+      <c r="E130" s="1"/>
+    </row>
+    <row r="136" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C136" s="1"/>
+      <c r="E136" s="1"/>
+    </row>
+    <row r="137" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E137" s="1"/>
+    </row>
+    <row r="138" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C138" s="1"/>
+      <c r="E138" s="1"/>
+    </row>
+    <row r="156" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C156" s="1"/>
+      <c r="E156" s="1"/>
+    </row>
+    <row r="157" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C157" s="1"/>
+      <c r="D157" s="1"/>
+      <c r="E157" s="1"/>
+    </row>
+    <row r="165" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D165" s="1"/>
+    </row>
+    <row r="181" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C181" s="1"/>
+      <c r="E181" s="1"/>
+    </row>
+    <row r="188" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C188" s="1"/>
+      <c r="E188" s="1"/>
+    </row>
+    <row r="197" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C197" s="1"/>
+      <c r="D197" s="1"/>
+      <c r="E197" s="1"/>
+    </row>
+    <row r="204" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C204" s="1"/>
+      <c r="D204" s="1"/>
+      <c r="E204" s="1"/>
+    </row>
+    <row r="205" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D205" s="1"/>
+    </row>
+    <row r="213" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C213" s="1"/>
+      <c r="E213" s="1"/>
     </row>
   </sheetData>
-  <sortState ref="B2:H300">
-    <sortCondition ref="H2:H300"/>
+  <sortState ref="B2:F238">
+    <sortCondition ref="F2:F238"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4846,10 +2296,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{704A353B-29F4-214A-B4FB-FA4EBD56D289}">
-  <dimension ref="B1:F21"/>
+  <dimension ref="B1:F18"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:F1"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4859,355 +2309,304 @@
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C1" s="2" t="s">
-        <v>124</v>
+        <v>60</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>125</v>
+        <v>61</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>126</v>
+        <v>62</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>127</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="C2" s="1">
-        <v>15918.69</v>
-      </c>
-      <c r="D2">
-        <v>8.2543976319999999</v>
+        <v>2.012859E-11</v>
+      </c>
+      <c r="D2" s="1">
+        <v>7.8495529999999997E-19</v>
       </c>
       <c r="E2" s="1">
-        <v>67431100</v>
+        <v>1.4594639999999999E-4</v>
       </c>
       <c r="F2">
-        <v>1.6713349999999998E-2</v>
+        <v>3.1451159999999999E-3</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>2.5220990000000002E-10</v>
+        <v>4.7469250000000003E-6</v>
       </c>
       <c r="D3" s="1">
-        <v>5.9273619999999998E-18</v>
+        <v>8.2402919999999995E-10</v>
       </c>
       <c r="E3" s="1">
-        <v>2.6796419999999999E-3</v>
+        <v>1.2218639999999999E-2</v>
       </c>
       <c r="F3">
-        <v>9.8534160000000003E-3</v>
+        <v>3.4791459999999998E-3</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="C4" s="1">
-        <v>24245700000000</v>
+        <v>44385.48</v>
       </c>
       <c r="D4" s="1">
-        <v>17892.57</v>
+        <v>31.8263</v>
       </c>
       <c r="E4" s="1">
-        <v>2.0777970000000001E+23</v>
+        <v>99613120</v>
       </c>
       <c r="F4">
-        <v>5.6742470000000003E-3</v>
+        <v>4.8064580000000004E-3</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D5" t="s">
-        <v>75</v>
-      </c>
-      <c r="E5" t="s">
-        <v>75</v>
+        <v>13</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4.1244439999999999E-14</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4.8127909999999997E-24</v>
+      </c>
+      <c r="E5" s="1">
+        <v>5.5889110000000001E-5</v>
       </c>
       <c r="F5">
-        <v>5.1285290000000004E-4</v>
+        <v>5.6742470000000003E-3</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C6">
-        <v>6998.1522052999999</v>
+        <v>35</v>
+      </c>
+      <c r="C6" s="1">
+        <v>8.8312649999999996E-3</v>
       </c>
       <c r="D6">
-        <v>3.4361418499999998</v>
+        <v>2.398194E-4</v>
       </c>
       <c r="E6" s="1">
-        <v>28787130</v>
+        <v>0.23495260000000001</v>
       </c>
       <c r="F6">
-        <v>2.864334E-2</v>
+        <v>6.7846160000000003E-3</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="C7" s="1">
-        <v>210662.7</v>
-      </c>
-      <c r="D7">
-        <v>81.842159022999994</v>
+        <v>3964951000</v>
+      </c>
+      <c r="D7" s="1">
+        <v>373.18419999999998</v>
       </c>
       <c r="E7" s="1">
-        <v>1213549000</v>
+        <v>1.687091E+17</v>
       </c>
       <c r="F7">
-        <v>3.4791459999999998E-3</v>
+        <v>9.8534160000000003E-3</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="C8">
-        <v>1.0860481</v>
+        <v>0.95371640000000002</v>
       </c>
       <c r="D8">
-        <v>1.0166166999999999</v>
+        <v>0.91857759999999999</v>
       </c>
       <c r="E8">
-        <v>1.162104</v>
+        <v>0.98896680000000003</v>
       </c>
       <c r="F8">
-        <v>1.5241040000000001E-2</v>
+        <v>1.1590120000000001E-2</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="C9">
-        <v>1.0352304000000001</v>
+        <v>0.92076959999999997</v>
       </c>
       <c r="D9">
-        <v>1.0064968000000001</v>
+        <v>0.86050789999999999</v>
       </c>
       <c r="E9">
-        <v>1.065876</v>
+        <v>0.9836549</v>
       </c>
       <c r="F9">
-        <v>1.7493410000000001E-2</v>
+        <v>1.5241040000000001E-2</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="C10" s="1">
-        <v>18087.05</v>
-      </c>
-      <c r="D10">
-        <v>7.6038371170000003</v>
-      </c>
-      <c r="E10" s="1">
-        <v>93361580</v>
+        <v>6.2819260000000001E-5</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1.482995E-8</v>
+      </c>
+      <c r="E10">
+        <v>0.12114750000000001</v>
       </c>
       <c r="F10">
-        <v>1.8013890000000001E-2</v>
+        <v>1.6713349999999998E-2</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="C11">
-        <v>1.0485298000000001</v>
+        <v>0.96596859999999996</v>
       </c>
       <c r="D11">
-        <v>1.0111562000000001</v>
+        <v>0.93819580000000002</v>
       </c>
       <c r="E11">
-        <v>1.0886400000000001</v>
+        <v>0.99354520000000002</v>
       </c>
       <c r="F11">
-        <v>1.1590120000000001E-2</v>
+        <v>1.7493410000000001E-2</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>93</v>
-      </c>
-      <c r="C12">
-        <v>1.0069009</v>
-      </c>
-      <c r="D12">
-        <v>1.0011057000000001</v>
-      </c>
-      <c r="E12">
-        <v>1.0130429999999999</v>
+        <v>28</v>
+      </c>
+      <c r="C12" s="1">
+        <v>5.5288170000000002E-5</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1.071104E-8</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.1315125</v>
       </c>
       <c r="F12">
-        <v>2.2389340000000001E-2</v>
+        <v>1.8013890000000001E-2</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>96</v>
-      </c>
-      <c r="C13" s="1">
-        <v>2.2529889999999999E-5</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1.003884E-8</v>
-      </c>
-      <c r="E13" s="1">
-        <v>3.142056E-2</v>
+        <v>31</v>
+      </c>
+      <c r="C13">
+        <v>0.99314639999999998</v>
+      </c>
+      <c r="D13">
+        <v>0.98712489999999997</v>
+      </c>
+      <c r="E13">
+        <v>0.99889550000000005</v>
       </c>
       <c r="F13">
-        <v>4.8064580000000004E-3</v>
+        <v>2.2389340000000001E-2</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>97</v>
-      </c>
-      <c r="C14" s="1">
-        <v>113.2341</v>
+        <v>20</v>
+      </c>
+      <c r="C14">
+        <v>1.428949E-4</v>
       </c>
       <c r="D14" s="1">
-        <v>4.2561780000000002</v>
+        <v>3.4737750000000003E-8</v>
       </c>
       <c r="E14">
-        <v>4169.8043341000002</v>
+        <v>0.29102410000000001</v>
       </c>
       <c r="F14">
-        <v>6.7846160000000003E-3</v>
+        <v>2.864334E-2</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>98</v>
-      </c>
-      <c r="C15" s="1">
-        <v>49680570000</v>
-      </c>
-      <c r="D15" s="1">
-        <v>6851.83</v>
-      </c>
-      <c r="E15" s="1">
-        <v>1.273958E+18</v>
+        <v>42</v>
+      </c>
+      <c r="C15">
+        <v>0.55025919999999995</v>
+      </c>
+      <c r="D15">
+        <v>0.31473449999999997</v>
+      </c>
+      <c r="E15">
+        <v>0.95409160000000004</v>
       </c>
       <c r="F15">
-        <v>3.1451159999999999E-3</v>
+        <v>3.4234359999999998E-2</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>104</v>
+        <v>44</v>
       </c>
       <c r="C16">
-        <v>1.8173253</v>
+        <v>0.54931430000000003</v>
       </c>
       <c r="D16">
-        <v>1.0481174</v>
+        <v>0.3133283</v>
       </c>
       <c r="E16">
-        <v>3.1772809999999998</v>
+        <v>0.95507169999999997</v>
       </c>
       <c r="F16">
-        <v>3.4234359999999998E-2</v>
+        <v>3.4608939999999998E-2</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>106</v>
+        <v>46</v>
       </c>
       <c r="C17">
-        <v>1.8204513</v>
+        <v>18.1891289</v>
       </c>
       <c r="D17">
-        <v>1.0470417999999999</v>
+        <v>1.12256925</v>
       </c>
       <c r="E17">
-        <v>3.191541</v>
+        <v>308.46292649999998</v>
       </c>
       <c r="F17">
-        <v>3.4608939999999998E-2</v>
+        <v>4.2181498999999997E-2</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>108</v>
+        <v>56</v>
       </c>
       <c r="C18">
-        <v>5.4977890000000001E-2</v>
+        <v>1</v>
       </c>
       <c r="D18">
-        <v>3.2418809999999998E-3</v>
+        <v>1</v>
       </c>
       <c r="E18">
-        <v>0.89081359999999998</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>4.2181498999999997E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
-        <v>113</v>
-      </c>
-      <c r="C19" t="s">
-        <v>75</v>
-      </c>
-      <c r="D19" t="s">
-        <v>75</v>
-      </c>
-      <c r="E19" t="s">
-        <v>75</v>
-      </c>
-      <c r="F19">
-        <v>5.1285290000000004E-4</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
-        <v>117</v>
-      </c>
-      <c r="C20" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" t="s">
-        <v>75</v>
-      </c>
-      <c r="E20" t="s">
-        <v>75</v>
-      </c>
-      <c r="F20">
-        <v>5.1285290000000004E-4</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
-        <v>120</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
         <v>4.4308019999999997E-2</v>
       </c>
     </row>
@@ -5221,7 +2620,7 @@
   <dimension ref="B1:H265"/>
   <sheetViews>
     <sheetView zoomScale="134" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5231,21 +2630,21 @@
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C1" s="2" t="s">
-        <v>124</v>
+        <v>60</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>125</v>
+        <v>61</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>126</v>
+        <v>62</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>127</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>181</v>
+        <v>117</v>
       </c>
       <c r="C2">
         <v>1.00025791</v>
@@ -5266,7 +2665,7 @@
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>183</v>
+        <v>119</v>
       </c>
       <c r="C3">
         <v>1.00025791</v>
@@ -5287,7 +2686,7 @@
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>186</v>
+        <v>122</v>
       </c>
       <c r="C4">
         <v>1.0000720000000001</v>
@@ -5308,7 +2707,7 @@
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>187</v>
+        <v>123</v>
       </c>
       <c r="C5">
         <v>0.94134249999999997</v>
@@ -5329,7 +2728,7 @@
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>191</v>
+        <v>127</v>
       </c>
       <c r="C6">
         <v>0.98733139999999997</v>
@@ -5350,7 +2749,7 @@
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>193</v>
+        <v>129</v>
       </c>
       <c r="C7">
         <v>0.66787379999999996</v>
@@ -5371,7 +2770,7 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>182</v>
+        <v>118</v>
       </c>
       <c r="C8">
         <v>1.0000562</v>
@@ -5392,7 +2791,7 @@
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>184</v>
+        <v>120</v>
       </c>
       <c r="C9">
         <v>0.58602889999999996</v>
@@ -5413,7 +2812,7 @@
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>185</v>
+        <v>121</v>
       </c>
       <c r="C10">
         <v>0.99435819999999997</v>
@@ -5434,7 +2833,7 @@
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>188</v>
+        <v>124</v>
       </c>
       <c r="C11">
         <v>1.0005552</v>
@@ -5455,7 +2854,7 @@
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>189</v>
+        <v>125</v>
       </c>
       <c r="C12">
         <v>0.99875970000000003</v>
@@ -5476,7 +2875,7 @@
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>190</v>
+        <v>126</v>
       </c>
       <c r="C13">
         <v>1.8396992999999999</v>
@@ -5497,7 +2896,7 @@
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>192</v>
+        <v>128</v>
       </c>
       <c r="C14">
         <v>0.99995769999999995</v>
@@ -5518,7 +2917,7 @@
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="C15">
         <v>0.89837670000000003</v>
@@ -5539,7 +2938,7 @@
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>195</v>
+        <v>131</v>
       </c>
       <c r="C16" s="1">
         <v>2230351000000</v>
@@ -5560,7 +2959,7 @@
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>196</v>
+        <v>132</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -5581,7 +2980,7 @@
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>197</v>
+        <v>133</v>
       </c>
       <c r="C18">
         <v>0.84731409999999996</v>
@@ -5602,7 +3001,7 @@
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>198</v>
+        <v>134</v>
       </c>
       <c r="C19">
         <v>2.09545687</v>
@@ -5623,7 +3022,7 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>199</v>
+        <v>135</v>
       </c>
       <c r="C20" s="1">
         <v>3.4963470000000003E-5</v>
@@ -5644,7 +3043,7 @@
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>200</v>
+        <v>136</v>
       </c>
       <c r="C21">
         <v>1.7593273</v>
@@ -5665,7 +3064,7 @@
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>201</v>
+        <v>137</v>
       </c>
       <c r="C22">
         <v>0.98083739999999997</v>
@@ -5686,7 +3085,7 @@
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>202</v>
+        <v>138</v>
       </c>
       <c r="C23" s="1">
         <v>1.121252E-59</v>
@@ -5707,7 +3106,7 @@
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>203</v>
+        <v>139</v>
       </c>
       <c r="C24" s="1">
         <v>2.659684E+35</v>
@@ -5728,7 +3127,7 @@
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>204</v>
+        <v>140</v>
       </c>
       <c r="C25">
         <v>3.7162780000000003E-4</v>
@@ -5749,7 +3148,7 @@
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>205</v>
+        <v>141</v>
       </c>
       <c r="C26">
         <v>1.0609955</v>
@@ -5770,7 +3169,7 @@
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>206</v>
+        <v>142</v>
       </c>
       <c r="C27">
         <v>2.7008732900000001</v>
@@ -5791,7 +3190,7 @@
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>207</v>
+        <v>143</v>
       </c>
       <c r="C28">
         <v>1.0008378</v>
@@ -5812,7 +3211,7 @@
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>208</v>
+        <v>144</v>
       </c>
       <c r="C29" s="1">
         <v>1.0220200000000001E+25</v>
@@ -5833,7 +3232,7 @@
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>209</v>
+        <v>145</v>
       </c>
       <c r="C30" s="1">
         <v>8.5125170000000002E-128</v>
@@ -5854,7 +3253,7 @@
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>210</v>
+        <v>146</v>
       </c>
       <c r="C31">
         <v>0.74431919999999996</v>
@@ -5875,7 +3274,7 @@
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>211</v>
+        <v>147</v>
       </c>
       <c r="C32">
         <v>1.9387645899999999</v>
@@ -5896,7 +3295,7 @@
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>212</v>
+        <v>148</v>
       </c>
       <c r="C33">
         <v>1.1311959999999999E-2</v>
@@ -5917,7 +3316,7 @@
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>213</v>
+        <v>149</v>
       </c>
       <c r="C34">
         <v>0.20379510000000001</v>
@@ -5938,7 +3337,7 @@
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>214</v>
+        <v>150</v>
       </c>
       <c r="C35">
         <v>0.98133899999999996</v>
@@ -5959,7 +3358,7 @@
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>215</v>
+        <v>151</v>
       </c>
       <c r="C36" s="1">
         <v>1.672795E-47</v>
@@ -5980,7 +3379,7 @@
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>216</v>
+        <v>152</v>
       </c>
       <c r="C37" s="1">
         <v>2.264165E+29</v>
@@ -5989,7 +3388,7 @@
         <v>4.6577020000000002E-258</v>
       </c>
       <c r="E37" t="s">
-        <v>101</v>
+        <v>39</v>
       </c>
       <c r="F37">
         <v>0.8423775</v>
@@ -6001,7 +3400,7 @@
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>217</v>
+        <v>153</v>
       </c>
       <c r="C38">
         <v>4.6421539999999997E-2</v>
@@ -6022,7 +3421,7 @@
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>218</v>
+        <v>154</v>
       </c>
       <c r="C39">
         <v>1.0381830999999999</v>
@@ -6043,7 +3442,7 @@
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>219</v>
+        <v>155</v>
       </c>
       <c r="C40">
         <v>0.4100164</v>
@@ -6064,7 +3463,7 @@
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>220</v>
+        <v>156</v>
       </c>
       <c r="C41">
         <v>1.0013401</v>
@@ -6085,7 +3484,7 @@
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>221</v>
+        <v>157</v>
       </c>
       <c r="C42" s="1">
         <v>14830.31</v>
@@ -6106,7 +3505,7 @@
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>222</v>
+        <v>158</v>
       </c>
       <c r="C43" s="1">
         <v>2.8016179999999999E+285</v>
@@ -6115,7 +3514,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="s">
-        <v>101</v>
+        <v>39</v>
       </c>
       <c r="F43">
         <v>0.45680098000000002</v>
@@ -6127,7 +3526,7 @@
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>223</v>
+        <v>159</v>
       </c>
       <c r="C44">
         <v>1.1429020000000001</v>
@@ -6148,7 +3547,7 @@
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>224</v>
+        <v>160</v>
       </c>
       <c r="C45">
         <v>1.4169885</v>
@@ -6169,7 +3568,7 @@
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>225</v>
+        <v>161</v>
       </c>
       <c r="C46">
         <v>6.6788109999999998E-3</v>
@@ -6190,7 +3589,7 @@
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>226</v>
+        <v>162</v>
       </c>
       <c r="C47">
         <v>2.21096593</v>
@@ -6211,7 +3610,7 @@
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>227</v>
+        <v>163</v>
       </c>
       <c r="C48">
         <v>1.0085523000000001</v>
@@ -6232,7 +3631,7 @@
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
-        <v>228</v>
+        <v>164</v>
       </c>
       <c r="C49" s="1">
         <v>1.873546E+93</v>
@@ -6241,7 +3640,7 @@
         <v>6.9555990000000002E-170</v>
       </c>
       <c r="E49" t="s">
-        <v>101</v>
+        <v>39</v>
       </c>
       <c r="F49">
         <v>0.48527369999999997</v>
@@ -6253,7 +3652,7 @@
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
-        <v>229</v>
+        <v>165</v>
       </c>
       <c r="C50" s="1">
         <v>507216100000</v>
@@ -6274,7 +3673,7 @@
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
-        <v>230</v>
+        <v>166</v>
       </c>
       <c r="C51">
         <v>1.415948E-3</v>
@@ -6295,7 +3694,7 @@
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
-        <v>231</v>
+        <v>167</v>
       </c>
       <c r="C52">
         <v>1.0664885</v>
@@ -6316,7 +3715,7 @@
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
-        <v>232</v>
+        <v>168</v>
       </c>
       <c r="C53">
         <v>2.1422692400000001</v>
@@ -6337,7 +3736,7 @@
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
-        <v>233</v>
+        <v>169</v>
       </c>
       <c r="C54">
         <v>1.0021903000000001</v>
@@ -6358,7 +3757,7 @@
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
-        <v>128</v>
+        <v>64</v>
       </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.2">
@@ -6366,18 +3765,18 @@
         <v>2.5</v>
       </c>
       <c r="D56" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E56">
         <v>97.5</v>
       </c>
       <c r="F56" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C57">
         <v>7.1528069999999999E-2</v>
@@ -6394,7 +3793,7 @@
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
-        <v>129</v>
+        <v>65</v>
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.2">
@@ -6402,18 +3801,18 @@
         <v>2.5</v>
       </c>
       <c r="D60" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E60">
         <v>97.5</v>
       </c>
       <c r="F60" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C61">
         <v>0.3221832</v>
@@ -6430,7 +3829,7 @@
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
-        <v>130</v>
+        <v>66</v>
       </c>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.2">
@@ -6438,18 +3837,18 @@
         <v>2.5</v>
       </c>
       <c r="D64" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E64">
         <v>97.5</v>
       </c>
       <c r="F64" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C65">
         <v>7.1528069999999999E-2</v>
@@ -6466,7 +3865,7 @@
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
-        <v>131</v>
+        <v>67</v>
       </c>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.2">
@@ -6474,18 +3873,18 @@
         <v>2.5</v>
       </c>
       <c r="D68" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E68">
         <v>97.5</v>
       </c>
       <c r="F68" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C69">
         <v>0.59569709999999998</v>
@@ -6502,7 +3901,7 @@
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
-        <v>132</v>
+        <v>68</v>
       </c>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.2">
@@ -6510,18 +3909,18 @@
         <v>2.5</v>
       </c>
       <c r="D72" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E72">
         <v>97.5</v>
       </c>
       <c r="F72" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C73">
         <v>0.61562720000000004</v>
@@ -6538,7 +3937,7 @@
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
-        <v>133</v>
+        <v>69</v>
       </c>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.2">
@@ -6546,18 +3945,18 @@
         <v>2.5</v>
       </c>
       <c r="D76" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E76">
         <v>97.5</v>
       </c>
       <c r="F76" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C77">
         <v>0.2067338</v>
@@ -6574,7 +3973,7 @@
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.2">
@@ -6582,18 +3981,18 @@
         <v>2.5</v>
       </c>
       <c r="D80" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E80">
         <v>97.5</v>
       </c>
       <c r="F80" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C81">
         <v>8.6988208</v>
@@ -6610,7 +4009,7 @@
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
-        <v>135</v>
+        <v>71</v>
       </c>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.2">
@@ -6618,18 +4017,18 @@
         <v>2.5</v>
       </c>
       <c r="D84" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E84">
         <v>97.5</v>
       </c>
       <c r="F84" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C85">
         <v>0.3739574</v>
@@ -6646,7 +4045,7 @@
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
-        <v>136</v>
+        <v>72</v>
       </c>
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.2">
@@ -6654,18 +4053,18 @@
         <v>2.5</v>
       </c>
       <c r="D88" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E88">
         <v>97.5</v>
       </c>
       <c r="F88" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C89">
         <v>0.56761640000000002</v>
@@ -6682,7 +4081,7 @@
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
-        <v>137</v>
+        <v>73</v>
       </c>
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.2">
@@ -6690,18 +4089,18 @@
         <v>2.5</v>
       </c>
       <c r="D92" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E92">
         <v>97.5</v>
       </c>
       <c r="F92" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C93">
         <v>0.38793830000000001</v>
@@ -6718,7 +4117,7 @@
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
-        <v>138</v>
+        <v>74</v>
       </c>
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.2">
@@ -6726,18 +4125,18 @@
         <v>2.5</v>
       </c>
       <c r="D96" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E96">
         <v>97.5</v>
       </c>
       <c r="F96" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C97">
         <v>1.8699298</v>
@@ -6754,7 +4153,7 @@
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
-        <v>139</v>
+        <v>75</v>
       </c>
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.2">
@@ -6762,18 +4161,18 @@
         <v>2.5</v>
       </c>
       <c r="D100" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E100">
         <v>97.5</v>
       </c>
       <c r="F100" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C101">
         <v>0.7136903</v>
@@ -6790,7 +4189,7 @@
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
-        <v>140</v>
+        <v>76</v>
       </c>
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.2">
@@ -6798,18 +4197,18 @@
         <v>2.5</v>
       </c>
       <c r="D104" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E104">
         <v>97.5</v>
       </c>
       <c r="F104" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C105">
         <v>0.94713340000000001</v>
@@ -6826,7 +4225,7 @@
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
-        <v>141</v>
+        <v>77</v>
       </c>
     </row>
     <row r="108" spans="2:6" x14ac:dyDescent="0.2">
@@ -6834,18 +4233,18 @@
         <v>2.5</v>
       </c>
       <c r="D108" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E108">
         <v>97.5</v>
       </c>
       <c r="F108" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B109" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C109">
         <v>0.66097870000000003</v>
@@ -6862,7 +4261,7 @@
     </row>
     <row r="111" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B111" t="s">
-        <v>142</v>
+        <v>78</v>
       </c>
     </row>
     <row r="112" spans="2:6" x14ac:dyDescent="0.2">
@@ -6870,18 +4269,18 @@
         <v>2.5</v>
       </c>
       <c r="D112" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E112">
         <v>97.5</v>
       </c>
       <c r="F112" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B113" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C113" s="1">
         <v>1.4194770000000001</v>
@@ -6898,7 +4297,7 @@
     </row>
     <row r="115" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B115" t="s">
-        <v>143</v>
+        <v>79</v>
       </c>
     </row>
     <row r="116" spans="2:6" x14ac:dyDescent="0.2">
@@ -6906,18 +4305,18 @@
         <v>2.5</v>
       </c>
       <c r="D116" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E116">
         <v>97.5</v>
       </c>
       <c r="F116" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B117" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C117">
         <v>0.76883970000000001</v>
@@ -6934,7 +4333,7 @@
     </row>
     <row r="119" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B119" t="s">
-        <v>144</v>
+        <v>80</v>
       </c>
     </row>
     <row r="120" spans="2:6" x14ac:dyDescent="0.2">
@@ -6942,18 +4341,18 @@
         <v>2.5</v>
       </c>
       <c r="D120" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E120">
         <v>97.5</v>
       </c>
       <c r="F120" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B121" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C121">
         <v>1.2634303</v>
@@ -6970,7 +4369,7 @@
     </row>
     <row r="123" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B123" t="s">
-        <v>145</v>
+        <v>81</v>
       </c>
     </row>
     <row r="124" spans="2:6" x14ac:dyDescent="0.2">
@@ -6978,18 +4377,18 @@
         <v>2.5</v>
       </c>
       <c r="D124" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E124">
         <v>97.5</v>
       </c>
       <c r="F124" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B125" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C125">
         <v>1.325848E-2</v>
@@ -7006,7 +4405,7 @@
     </row>
     <row r="127" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B127" t="s">
-        <v>146</v>
+        <v>82</v>
       </c>
     </row>
     <row r="128" spans="2:6" x14ac:dyDescent="0.2">
@@ -7014,18 +4413,18 @@
         <v>2.5</v>
       </c>
       <c r="D128" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E128">
         <v>97.5</v>
       </c>
       <c r="F128" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B129" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C129" s="1">
         <v>1.4900409999999999</v>
@@ -7042,7 +4441,7 @@
     </row>
     <row r="131" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B131" t="s">
-        <v>147</v>
+        <v>83</v>
       </c>
     </row>
     <row r="132" spans="2:6" x14ac:dyDescent="0.2">
@@ -7050,18 +4449,18 @@
         <v>2.5</v>
       </c>
       <c r="D132" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E132">
         <v>97.5</v>
       </c>
       <c r="F132" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B133" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C133">
         <v>0.1326137</v>
@@ -7078,7 +4477,7 @@
     </row>
     <row r="135" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B135" t="s">
-        <v>148</v>
+        <v>84</v>
       </c>
     </row>
     <row r="136" spans="2:6" x14ac:dyDescent="0.2">
@@ -7086,18 +4485,18 @@
         <v>2.5</v>
       </c>
       <c r="D136" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E136">
         <v>97.5</v>
       </c>
       <c r="F136" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B137" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C137">
         <v>1.2283244</v>
@@ -7114,7 +4513,7 @@
     </row>
     <row r="139" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B139" t="s">
-        <v>149</v>
+        <v>85</v>
       </c>
     </row>
     <row r="140" spans="2:6" x14ac:dyDescent="0.2">
@@ -7122,18 +4521,18 @@
         <v>2.5</v>
       </c>
       <c r="D140" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E140">
         <v>97.5</v>
       </c>
       <c r="F140" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B141" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C141" s="1">
         <v>0.78992169999999995</v>
@@ -7150,7 +4549,7 @@
     </row>
     <row r="143" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B143" t="s">
-        <v>150</v>
+        <v>86</v>
       </c>
     </row>
     <row r="144" spans="2:6" x14ac:dyDescent="0.2">
@@ -7158,18 +4557,18 @@
         <v>2.5</v>
       </c>
       <c r="D144" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E144">
         <v>97.5</v>
       </c>
       <c r="F144" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B145" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C145" s="1">
         <v>0.97626360000000001</v>
@@ -7186,7 +4585,7 @@
     </row>
     <row r="147" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B147" t="s">
-        <v>151</v>
+        <v>87</v>
       </c>
     </row>
     <row r="148" spans="2:6" x14ac:dyDescent="0.2">
@@ -7194,18 +4593,18 @@
         <v>2.5</v>
       </c>
       <c r="D148" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E148">
         <v>97.5</v>
       </c>
       <c r="F148" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B149" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C149">
         <v>2.281728362</v>
@@ -7222,7 +4621,7 @@
     </row>
     <row r="151" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B151" t="s">
-        <v>152</v>
+        <v>88</v>
       </c>
     </row>
     <row r="152" spans="2:6" x14ac:dyDescent="0.2">
@@ -7230,18 +4629,18 @@
         <v>2.5</v>
       </c>
       <c r="D152" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E152">
         <v>97.5</v>
       </c>
       <c r="F152" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B153" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C153">
         <v>0.2424674</v>
@@ -7258,7 +4657,7 @@
     </row>
     <row r="155" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B155" t="s">
-        <v>153</v>
+        <v>89</v>
       </c>
     </row>
     <row r="156" spans="2:6" x14ac:dyDescent="0.2">
@@ -7266,18 +4665,18 @@
         <v>2.5</v>
       </c>
       <c r="D156" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E156">
         <v>97.5</v>
       </c>
       <c r="F156" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B157" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C157">
         <v>2.5248639999999999E-2</v>
@@ -7294,7 +4693,7 @@
     </row>
     <row r="159" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B159" t="s">
-        <v>154</v>
+        <v>90</v>
       </c>
     </row>
     <row r="160" spans="2:6" x14ac:dyDescent="0.2">
@@ -7302,18 +4701,18 @@
         <v>2.5</v>
       </c>
       <c r="D160" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E160">
         <v>97.5</v>
       </c>
       <c r="F160" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B161" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C161">
         <v>0.48941309999999999</v>
@@ -7330,7 +4729,7 @@
     </row>
     <row r="163" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B163" t="s">
-        <v>155</v>
+        <v>91</v>
       </c>
     </row>
     <row r="164" spans="2:6" x14ac:dyDescent="0.2">
@@ -7338,18 +4737,18 @@
         <v>2.5</v>
       </c>
       <c r="D164" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E164">
         <v>97.5</v>
       </c>
       <c r="F164" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B165" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C165" s="1">
         <v>2.3269000000000002</v>
@@ -7366,7 +4765,7 @@
     </row>
     <row r="167" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B167" t="s">
-        <v>156</v>
+        <v>92</v>
       </c>
     </row>
     <row r="168" spans="2:6" x14ac:dyDescent="0.2">
@@ -7374,18 +4773,18 @@
         <v>2.5</v>
       </c>
       <c r="D168" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E168">
         <v>97.5</v>
       </c>
       <c r="F168" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B169" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C169" s="1">
         <v>0.68802459999999999</v>
@@ -7402,7 +4801,7 @@
     </row>
     <row r="171" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B171" t="s">
-        <v>157</v>
+        <v>93</v>
       </c>
     </row>
     <row r="172" spans="2:6" x14ac:dyDescent="0.2">
@@ -7410,18 +4809,18 @@
         <v>2.5</v>
       </c>
       <c r="D172" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E172">
         <v>97.5</v>
       </c>
       <c r="F172" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B173" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C173">
         <v>2.6903494999999999</v>
@@ -7438,7 +4837,7 @@
     </row>
     <row r="175" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B175" t="s">
-        <v>158</v>
+        <v>94</v>
       </c>
     </row>
     <row r="176" spans="2:6" x14ac:dyDescent="0.2">
@@ -7446,18 +4845,18 @@
         <v>2.5</v>
       </c>
       <c r="D176" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E176">
         <v>97.5</v>
       </c>
       <c r="F176" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B177" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C177">
         <v>1.702265E-2</v>
@@ -7474,7 +4873,7 @@
     </row>
     <row r="179" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B179" t="s">
-        <v>159</v>
+        <v>95</v>
       </c>
     </row>
     <row r="180" spans="2:6" x14ac:dyDescent="0.2">
@@ -7482,18 +4881,18 @@
         <v>2.5</v>
       </c>
       <c r="D180" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E180">
         <v>97.5</v>
       </c>
       <c r="F180" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B181" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C181">
         <v>0.93344309000000003</v>
@@ -7510,7 +4909,7 @@
     </row>
     <row r="183" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B183" t="s">
-        <v>160</v>
+        <v>96</v>
       </c>
     </row>
     <row r="184" spans="2:6" x14ac:dyDescent="0.2">
@@ -7518,18 +4917,18 @@
         <v>2.5</v>
       </c>
       <c r="D184" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E184">
         <v>97.5</v>
       </c>
       <c r="F184" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B185" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C185">
         <v>36.347115700000003</v>
@@ -7546,7 +4945,7 @@
     </row>
     <row r="187" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B187" t="s">
-        <v>161</v>
+        <v>97</v>
       </c>
     </row>
     <row r="188" spans="2:6" x14ac:dyDescent="0.2">
@@ -7554,18 +4953,18 @@
         <v>2.5</v>
       </c>
       <c r="D188" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E188">
         <v>97.5</v>
       </c>
       <c r="F188" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B189" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C189">
         <v>1.350495</v>
@@ -7582,7 +4981,7 @@
     </row>
     <row r="191" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B191" t="s">
-        <v>162</v>
+        <v>98</v>
       </c>
     </row>
     <row r="192" spans="2:6" x14ac:dyDescent="0.2">
@@ -7590,18 +4989,18 @@
         <v>2.5</v>
       </c>
       <c r="D192" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E192">
         <v>97.5</v>
       </c>
       <c r="F192" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B193" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C193" s="1">
         <v>0.79929070000000002</v>
@@ -7618,7 +5017,7 @@
     </row>
     <row r="195" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B195" t="s">
-        <v>163</v>
+        <v>99</v>
       </c>
     </row>
     <row r="196" spans="2:6" x14ac:dyDescent="0.2">
@@ -7626,18 +5025,18 @@
         <v>2.5</v>
       </c>
       <c r="D196" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E196">
         <v>97.5</v>
       </c>
       <c r="F196" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B197" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C197" s="1">
         <v>0.76847430000000005</v>
@@ -7654,7 +5053,7 @@
     </row>
     <row r="199" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B199" t="s">
-        <v>164</v>
+        <v>100</v>
       </c>
     </row>
     <row r="200" spans="2:6" x14ac:dyDescent="0.2">
@@ -7662,18 +5061,18 @@
         <v>2.5</v>
       </c>
       <c r="D200" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E200">
         <v>97.5</v>
       </c>
       <c r="F200" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B201" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C201">
         <v>1.0389859800000001</v>
@@ -7690,7 +5089,7 @@
     </row>
     <row r="203" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B203" t="s">
-        <v>165</v>
+        <v>101</v>
       </c>
     </row>
     <row r="204" spans="2:6" x14ac:dyDescent="0.2">
@@ -7698,18 +5097,18 @@
         <v>2.5</v>
       </c>
       <c r="D204" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E204">
         <v>97.5</v>
       </c>
       <c r="F204" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B205" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C205">
         <v>0.31957989999999997</v>
@@ -7726,7 +5125,7 @@
     </row>
     <row r="207" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B207" t="s">
-        <v>166</v>
+        <v>102</v>
       </c>
     </row>
     <row r="208" spans="2:6" x14ac:dyDescent="0.2">
@@ -7734,18 +5133,18 @@
         <v>2.5</v>
       </c>
       <c r="D208" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E208">
         <v>97.5</v>
       </c>
       <c r="F208" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B209" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C209">
         <v>9.6962606000000005</v>
@@ -7762,7 +5161,7 @@
     </row>
     <row r="211" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B211" t="s">
-        <v>167</v>
+        <v>103</v>
       </c>
     </row>
     <row r="212" spans="2:6" x14ac:dyDescent="0.2">
@@ -7770,18 +5169,18 @@
         <v>2.5</v>
       </c>
       <c r="D212" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E212">
         <v>97.5</v>
       </c>
       <c r="F212" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B213" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C213">
         <v>0.43871939999999998</v>
@@ -7798,7 +5197,7 @@
     </row>
     <row r="215" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B215" t="s">
-        <v>168</v>
+        <v>104</v>
       </c>
     </row>
     <row r="216" spans="2:6" x14ac:dyDescent="0.2">
@@ -7806,18 +5205,18 @@
         <v>2.5</v>
       </c>
       <c r="D216" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E216">
         <v>97.5</v>
       </c>
       <c r="F216" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B217" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C217" s="1">
         <v>0.84220640000000002</v>
@@ -7834,7 +5233,7 @@
     </row>
     <row r="219" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B219" t="s">
-        <v>169</v>
+        <v>105</v>
       </c>
     </row>
     <row r="220" spans="2:6" x14ac:dyDescent="0.2">
@@ -7842,18 +5241,18 @@
         <v>2.5</v>
       </c>
       <c r="D220" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E220">
         <v>97.5</v>
       </c>
       <c r="F220" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B221" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C221" s="1">
         <v>0.50777559999999999</v>
@@ -7870,7 +5269,7 @@
     </row>
     <row r="223" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B223" t="s">
-        <v>170</v>
+        <v>106</v>
       </c>
     </row>
     <row r="224" spans="2:6" x14ac:dyDescent="0.2">
@@ -7878,18 +5277,18 @@
         <v>2.5</v>
       </c>
       <c r="D224" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E224">
         <v>97.5</v>
       </c>
       <c r="F224" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B225" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C225">
         <v>0.30875140000000001</v>
@@ -7906,7 +5305,7 @@
     </row>
     <row r="227" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B227" t="s">
-        <v>171</v>
+        <v>107</v>
       </c>
     </row>
     <row r="228" spans="2:6" x14ac:dyDescent="0.2">
@@ -7914,18 +5313,18 @@
         <v>2.5</v>
       </c>
       <c r="D228" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E228">
         <v>97.5</v>
       </c>
       <c r="F228" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B229" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C229">
         <v>0.10598059999999999</v>
@@ -7942,7 +5341,7 @@
     </row>
     <row r="231" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B231" t="s">
-        <v>172</v>
+        <v>108</v>
       </c>
     </row>
     <row r="232" spans="2:6" x14ac:dyDescent="0.2">
@@ -7950,18 +5349,18 @@
         <v>2.5</v>
       </c>
       <c r="D232" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E232">
         <v>97.5</v>
       </c>
       <c r="F232" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B233" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C233">
         <v>0.847893707</v>
@@ -7978,7 +5377,7 @@
     </row>
     <row r="235" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B235" t="s">
-        <v>173</v>
+        <v>109</v>
       </c>
     </row>
     <row r="236" spans="2:6" x14ac:dyDescent="0.2">
@@ -7986,18 +5385,18 @@
         <v>2.5</v>
       </c>
       <c r="D236" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E236">
         <v>97.5</v>
       </c>
       <c r="F236" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B237" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C237">
         <v>8.0280959999999998E-2</v>
@@ -8014,7 +5413,7 @@
     </row>
     <row r="239" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B239" t="s">
-        <v>174</v>
+        <v>110</v>
       </c>
     </row>
     <row r="240" spans="2:6" x14ac:dyDescent="0.2">
@@ -8022,18 +5421,18 @@
         <v>2.5</v>
       </c>
       <c r="D240" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E240">
         <v>97.5</v>
       </c>
       <c r="F240" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B241" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C241">
         <v>0.41777789999999998</v>
@@ -8050,7 +5449,7 @@
     </row>
     <row r="243" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B243" t="s">
-        <v>175</v>
+        <v>111</v>
       </c>
     </row>
     <row r="244" spans="2:6" x14ac:dyDescent="0.2">
@@ -8058,18 +5457,18 @@
         <v>2.5</v>
       </c>
       <c r="D244" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E244">
         <v>97.5</v>
       </c>
       <c r="F244" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B245" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C245" s="1">
         <v>0.36191030000000002</v>
@@ -8086,7 +5485,7 @@
     </row>
     <row r="247" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B247" t="s">
-        <v>176</v>
+        <v>112</v>
       </c>
     </row>
     <row r="248" spans="2:6" x14ac:dyDescent="0.2">
@@ -8094,18 +5493,18 @@
         <v>2.5</v>
       </c>
       <c r="D248" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E248">
         <v>97.5</v>
       </c>
       <c r="F248" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B249" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C249" s="1">
         <v>0.72623349999999998</v>
@@ -8122,7 +5521,7 @@
     </row>
     <row r="251" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B251" t="s">
-        <v>177</v>
+        <v>113</v>
       </c>
     </row>
     <row r="252" spans="2:6" x14ac:dyDescent="0.2">
@@ -8130,18 +5529,18 @@
         <v>2.5</v>
       </c>
       <c r="D252" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E252">
         <v>97.5</v>
       </c>
       <c r="F252" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B253" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C253">
         <v>1.557594768</v>
@@ -8158,7 +5557,7 @@
     </row>
     <row r="255" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B255" t="s">
-        <v>178</v>
+        <v>114</v>
       </c>
     </row>
     <row r="256" spans="2:6" x14ac:dyDescent="0.2">
@@ -8166,18 +5565,18 @@
         <v>2.5</v>
       </c>
       <c r="D256" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E256">
         <v>97.5</v>
       </c>
       <c r="F256" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B257" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C257">
         <v>0.2377889</v>
@@ -8194,7 +5593,7 @@
     </row>
     <row r="259" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B259" t="s">
-        <v>179</v>
+        <v>115</v>
       </c>
     </row>
     <row r="260" spans="2:6" x14ac:dyDescent="0.2">
@@ -8202,18 +5601,18 @@
         <v>2.5</v>
       </c>
       <c r="D260" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E260">
         <v>97.5</v>
       </c>
       <c r="F260" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B261" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C261">
         <v>5.6795270000000002E-2</v>
@@ -8230,7 +5629,7 @@
     </row>
     <row r="263" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B263" t="s">
-        <v>180</v>
+        <v>116</v>
       </c>
     </row>
     <row r="264" spans="2:6" x14ac:dyDescent="0.2">
@@ -8238,18 +5637,18 @@
         <v>2.5</v>
       </c>
       <c r="D264" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E264">
         <v>97.5</v>
       </c>
       <c r="F264" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B265" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C265">
         <v>0.41077970000000003</v>
@@ -8287,21 +5686,21 @@
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C1" s="2" t="s">
-        <v>124</v>
+        <v>60</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>125</v>
+        <v>61</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>126</v>
+        <v>62</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>127</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>181</v>
+        <v>117</v>
       </c>
       <c r="C2">
         <v>1.00025791</v>
@@ -8318,7 +5717,7 @@
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>183</v>
+        <v>119</v>
       </c>
       <c r="C3">
         <v>1.00025791</v>
@@ -8335,7 +5734,7 @@
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>186</v>
+        <v>122</v>
       </c>
       <c r="C4">
         <v>1.0000720000000001</v>
@@ -8352,7 +5751,7 @@
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>187</v>
+        <v>123</v>
       </c>
       <c r="C5">
         <v>0.94134249999999997</v>
@@ -8369,7 +5768,7 @@
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>191</v>
+        <v>127</v>
       </c>
       <c r="C6">
         <v>0.98733139999999997</v>
@@ -8386,7 +5785,7 @@
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>193</v>
+        <v>129</v>
       </c>
       <c r="C7">
         <v>0.66787379999999996</v>
@@ -8421,21 +5820,21 @@
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C1" s="2" t="s">
-        <v>124</v>
+        <v>60</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>125</v>
+        <v>61</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>126</v>
+        <v>62</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>127</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>290</v>
+        <v>226</v>
       </c>
       <c r="C2" s="1">
         <v>1.057529E-6</v>
@@ -8456,7 +5855,7 @@
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>292</v>
+        <v>228</v>
       </c>
       <c r="C3">
         <v>1.0000374999999999</v>
@@ -8477,7 +5876,7 @@
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>293</v>
+        <v>229</v>
       </c>
       <c r="C4">
         <v>1.0000547</v>
@@ -8498,7 +5897,7 @@
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>295</v>
+        <v>231</v>
       </c>
       <c r="C5">
         <v>1.0061484999999999</v>
@@ -8519,7 +5918,7 @@
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>297</v>
+        <v>233</v>
       </c>
       <c r="C6">
         <v>1.0063555</v>
@@ -8540,7 +5939,7 @@
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>301</v>
+        <v>237</v>
       </c>
       <c r="C7">
         <v>5.918988E-2</v>
@@ -8561,7 +5960,7 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>304</v>
+        <v>240</v>
       </c>
       <c r="C8" s="1">
         <v>3.4609930000000001E-8</v>
@@ -8582,7 +5981,7 @@
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>312</v>
+        <v>248</v>
       </c>
       <c r="C9" s="1">
         <v>7.1484860000000003E-7</v>
@@ -8603,7 +6002,7 @@
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>318</v>
+        <v>254</v>
       </c>
       <c r="C10" s="1">
         <v>167300200</v>
@@ -8624,7 +6023,7 @@
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>283</v>
+        <v>219</v>
       </c>
       <c r="C11">
         <v>0.99994799999999995</v>
@@ -8645,7 +6044,7 @@
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>284</v>
+        <v>220</v>
       </c>
       <c r="C12">
         <v>0.99995429999999996</v>
@@ -8666,7 +6065,7 @@
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>285</v>
+        <v>221</v>
       </c>
       <c r="C13">
         <v>0.99997230000000004</v>
@@ -8687,7 +6086,7 @@
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>286</v>
+        <v>222</v>
       </c>
       <c r="C14">
         <v>0.99997320000000001</v>
@@ -8708,7 +6107,7 @@
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>287</v>
+        <v>223</v>
       </c>
       <c r="C15">
         <v>0.99998580000000004</v>
@@ -8729,7 +6128,7 @@
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>288</v>
+        <v>224</v>
       </c>
       <c r="C16">
         <v>0.99998980000000004</v>
@@ -8750,7 +6149,7 @@
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>289</v>
+        <v>225</v>
       </c>
       <c r="C17">
         <v>0.75958669999999995</v>
@@ -8771,7 +6170,7 @@
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>291</v>
+        <v>227</v>
       </c>
       <c r="C18">
         <v>2.0996288999999999</v>
@@ -8792,7 +6191,7 @@
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>294</v>
+        <v>230</v>
       </c>
       <c r="C19">
         <v>0.99980040000000003</v>
@@ -8813,7 +6212,7 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>296</v>
+        <v>232</v>
       </c>
       <c r="C20">
         <v>1.0039990999999999</v>
@@ -8834,7 +6233,7 @@
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>298</v>
+        <v>234</v>
       </c>
       <c r="C21">
         <v>0.98129460000000002</v>
@@ -8855,7 +6254,7 @@
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>299</v>
+        <v>235</v>
       </c>
       <c r="C22">
         <v>0.98140930000000004</v>
@@ -8876,7 +6275,7 @@
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>300</v>
+        <v>236</v>
       </c>
       <c r="C23">
         <v>1.0038969</v>
@@ -8897,7 +6296,7 @@
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>302</v>
+        <v>238</v>
       </c>
       <c r="C24">
         <v>0.41329759999999999</v>
@@ -8918,7 +6317,7 @@
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>303</v>
+        <v>239</v>
       </c>
       <c r="C25">
         <v>4.9736670000000002E-3</v>
@@ -8939,7 +6338,7 @@
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>305</v>
+        <v>241</v>
       </c>
       <c r="C26">
         <v>0.3397654</v>
@@ -8960,7 +6359,7 @@
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>306</v>
+        <v>242</v>
       </c>
       <c r="C27">
         <v>4.6923310000000003E-2</v>
@@ -8981,7 +6380,7 @@
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>307</v>
+        <v>243</v>
       </c>
       <c r="C28">
         <v>9.7002770000000002E-3</v>
@@ -9002,7 +6401,7 @@
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>308</v>
+        <v>244</v>
       </c>
       <c r="C29">
         <v>268.75074018999999</v>
@@ -9023,7 +6422,7 @@
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>309</v>
+        <v>245</v>
       </c>
       <c r="C30">
         <v>1.9562339999999998E-3</v>
@@ -9044,7 +6443,7 @@
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>310</v>
+        <v>246</v>
       </c>
       <c r="C31" s="1">
         <v>180.8056</v>
@@ -9065,7 +6464,7 @@
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>311</v>
+        <v>247</v>
       </c>
       <c r="C32" s="1">
         <v>35392450</v>
@@ -9086,7 +6485,7 @@
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>313</v>
+        <v>249</v>
       </c>
       <c r="C33">
         <v>1.6827605999999999</v>
@@ -9107,7 +6506,7 @@
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>314</v>
+        <v>250</v>
       </c>
       <c r="C34">
         <v>4.0949350000000002E-2</v>
@@ -9128,7 +6527,7 @@
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>315</v>
+        <v>251</v>
       </c>
       <c r="C35">
         <v>0.84541500000000003</v>
@@ -9149,7 +6548,7 @@
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>316</v>
+        <v>252</v>
       </c>
       <c r="C36">
         <v>20.405736600000001</v>
@@ -9170,7 +6569,7 @@
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>317</v>
+        <v>253</v>
       </c>
       <c r="C37">
         <v>4.85026E-2</v>
@@ -9191,7 +6590,7 @@
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>319</v>
+        <v>255</v>
       </c>
       <c r="C38">
         <v>4.188385E-2</v>
@@ -9212,7 +6611,7 @@
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>320</v>
+        <v>256</v>
       </c>
       <c r="C39">
         <v>4.542942</v>
@@ -9233,7 +6632,7 @@
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>321</v>
+        <v>257</v>
       </c>
       <c r="C40">
         <v>6.6795309999999997E-2</v>
@@ -9254,7 +6653,7 @@
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>322</v>
+        <v>258</v>
       </c>
       <c r="C41">
         <v>1.9926565000000001</v>
@@ -9275,7 +6674,7 @@
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>323</v>
+        <v>259</v>
       </c>
       <c r="C42">
         <v>0.23343050000000001</v>
@@ -9296,7 +6695,7 @@
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>324</v>
+        <v>260</v>
       </c>
       <c r="C43">
         <v>76.127724200000003</v>
@@ -9317,7 +6716,7 @@
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>325</v>
+        <v>261</v>
       </c>
       <c r="C44" s="1">
         <v>18286.59</v>
@@ -9338,7 +6737,7 @@
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>326</v>
+        <v>262</v>
       </c>
       <c r="C45">
         <v>5.8875069999999999E-4</v>
@@ -9359,7 +6758,7 @@
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>327</v>
+        <v>263</v>
       </c>
       <c r="C46">
         <v>0.1177646</v>
@@ -9380,7 +6779,7 @@
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>328</v>
+        <v>264</v>
       </c>
       <c r="C47">
         <v>3.5773200000000002E-3</v>
@@ -9401,7 +6800,7 @@
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>329</v>
+        <v>265</v>
       </c>
       <c r="C48">
         <v>1.2137092</v>
@@ -9422,7 +6821,7 @@
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
-        <v>330</v>
+        <v>266</v>
       </c>
       <c r="C49">
         <v>0.98139549999999998</v>
@@ -9443,7 +6842,7 @@
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
-        <v>331</v>
+        <v>267</v>
       </c>
       <c r="C50">
         <v>20.0501118</v>
@@ -9464,7 +6863,7 @@
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
-        <v>234</v>
+        <v>170</v>
       </c>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.2">
@@ -9472,18 +6871,18 @@
         <v>2.5</v>
       </c>
       <c r="D52" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E52">
         <v>97.5</v>
       </c>
       <c r="F52" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C53">
         <v>0.96595869999999995</v>
@@ -9500,7 +6899,7 @@
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
-        <v>235</v>
+        <v>171</v>
       </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.2">
@@ -9508,18 +6907,18 @@
         <v>2.5</v>
       </c>
       <c r="D56" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E56">
         <v>97.5</v>
       </c>
       <c r="F56" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C57">
         <v>0.61998410000000004</v>
@@ -9536,7 +6935,7 @@
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
-        <v>236</v>
+        <v>172</v>
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.2">
@@ -9544,18 +6943,18 @@
         <v>2.5</v>
       </c>
       <c r="D60" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E60">
         <v>97.5</v>
       </c>
       <c r="F60" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C61">
         <v>0.79823109999999997</v>
@@ -9572,7 +6971,7 @@
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
-        <v>237</v>
+        <v>173</v>
       </c>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.2">
@@ -9580,18 +6979,18 @@
         <v>2.5</v>
       </c>
       <c r="D64" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E64">
         <v>97.5</v>
       </c>
       <c r="F64" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C65">
         <v>0.63182050000000001</v>
@@ -9608,7 +7007,7 @@
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
-        <v>238</v>
+        <v>174</v>
       </c>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.2">
@@ -9616,18 +7015,18 @@
         <v>2.5</v>
       </c>
       <c r="D68" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E68">
         <v>97.5</v>
       </c>
       <c r="F68" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C69">
         <v>0.7047253</v>
@@ -9644,7 +7043,7 @@
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
-        <v>239</v>
+        <v>175</v>
       </c>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.2">
@@ -9652,18 +7051,18 @@
         <v>2.5</v>
       </c>
       <c r="D72" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E72">
         <v>97.5</v>
       </c>
       <c r="F72" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C73">
         <v>0.6062263</v>
@@ -9680,7 +7079,7 @@
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
-        <v>240</v>
+        <v>176</v>
       </c>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.2">
@@ -9688,18 +7087,18 @@
         <v>2.5</v>
       </c>
       <c r="D76" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E76">
         <v>97.5</v>
       </c>
       <c r="F76" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C77">
         <v>0.65353709999999998</v>
@@ -9716,7 +7115,7 @@
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
-        <v>241</v>
+        <v>177</v>
       </c>
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.2">
@@ -9724,18 +7123,18 @@
         <v>2.5</v>
       </c>
       <c r="D80" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E80">
         <v>97.5</v>
       </c>
       <c r="F80" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C81" s="1">
         <v>1.251946</v>
@@ -9752,7 +7151,7 @@
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
-        <v>242</v>
+        <v>178</v>
       </c>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.2">
@@ -9760,18 +7159,18 @@
         <v>2.5</v>
       </c>
       <c r="D84" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E84">
         <v>97.5</v>
       </c>
       <c r="F84" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C85">
         <v>0.42278979999999999</v>
@@ -9788,7 +7187,7 @@
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
-        <v>243</v>
+        <v>179</v>
       </c>
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.2">
@@ -9796,18 +7195,18 @@
         <v>2.5</v>
       </c>
       <c r="D88" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E88">
         <v>97.5</v>
       </c>
       <c r="F88" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C89">
         <v>0.35138160000000002</v>
@@ -9824,7 +7223,7 @@
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
-        <v>244</v>
+        <v>180</v>
       </c>
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.2">
@@ -9832,18 +7231,18 @@
         <v>2.5</v>
       </c>
       <c r="D92" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E92">
         <v>97.5</v>
       </c>
       <c r="F92" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C93">
         <v>0.2275539</v>
@@ -9860,7 +7259,7 @@
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
-        <v>245</v>
+        <v>181</v>
       </c>
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.2">
@@ -9868,18 +7267,18 @@
         <v>2.5</v>
       </c>
       <c r="D96" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E96">
         <v>97.5</v>
       </c>
       <c r="F96" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C97">
         <v>0.78083610000000003</v>
@@ -9896,7 +7295,7 @@
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
-        <v>246</v>
+        <v>182</v>
       </c>
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.2">
@@ -9904,18 +7303,18 @@
         <v>2.5</v>
       </c>
       <c r="D100" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E100">
         <v>97.5</v>
       </c>
       <c r="F100" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C101">
         <v>0.24714610000000001</v>
@@ -9932,7 +7331,7 @@
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
-        <v>247</v>
+        <v>183</v>
       </c>
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.2">
@@ -9940,18 +7339,18 @@
         <v>2.5</v>
       </c>
       <c r="D104" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E104">
         <v>97.5</v>
       </c>
       <c r="F104" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C105">
         <v>0.37693989999999999</v>
@@ -9968,7 +7367,7 @@
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
-        <v>248</v>
+        <v>184</v>
       </c>
     </row>
     <row r="108" spans="2:6" x14ac:dyDescent="0.2">
@@ -9976,18 +7375,18 @@
         <v>2.5</v>
       </c>
       <c r="D108" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E108">
         <v>97.5</v>
       </c>
       <c r="F108" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B109" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C109">
         <v>0.24032110000000001</v>
@@ -10004,7 +7403,7 @@
     </row>
     <row r="111" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B111" t="s">
-        <v>249</v>
+        <v>185</v>
       </c>
     </row>
     <row r="112" spans="2:6" x14ac:dyDescent="0.2">
@@ -10012,18 +7411,18 @@
         <v>2.5</v>
       </c>
       <c r="D112" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E112">
         <v>97.5</v>
       </c>
       <c r="F112" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B113" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C113">
         <v>0.72350959999999997</v>
@@ -10040,7 +7439,7 @@
     </row>
     <row r="115" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B115" t="s">
-        <v>250</v>
+        <v>186</v>
       </c>
     </row>
     <row r="116" spans="2:6" x14ac:dyDescent="0.2">
@@ -10048,18 +7447,18 @@
         <v>2.5</v>
       </c>
       <c r="D116" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E116">
         <v>97.5</v>
       </c>
       <c r="F116" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B117" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C117">
         <v>0.73191649999999997</v>
@@ -10076,7 +7475,7 @@
     </row>
     <row r="119" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B119" t="s">
-        <v>251</v>
+        <v>187</v>
       </c>
     </row>
     <row r="120" spans="2:6" x14ac:dyDescent="0.2">
@@ -10084,18 +7483,18 @@
         <v>2.5</v>
       </c>
       <c r="D120" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E120">
         <v>97.5</v>
       </c>
       <c r="F120" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B121" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C121">
         <v>0.37321549999999998</v>
@@ -10112,7 +7511,7 @@
     </row>
     <row r="123" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B123" t="s">
-        <v>252</v>
+        <v>188</v>
       </c>
     </row>
     <row r="124" spans="2:6" x14ac:dyDescent="0.2">
@@ -10120,18 +7519,18 @@
         <v>2.5</v>
       </c>
       <c r="D124" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E124">
         <v>97.5</v>
       </c>
       <c r="F124" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B125" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C125">
         <v>11.84370176</v>
@@ -10148,7 +7547,7 @@
     </row>
     <row r="127" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B127" t="s">
-        <v>253</v>
+        <v>189</v>
       </c>
     </row>
     <row r="128" spans="2:6" x14ac:dyDescent="0.2">
@@ -10156,18 +7555,18 @@
         <v>2.5</v>
       </c>
       <c r="D128" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E128">
         <v>97.5</v>
       </c>
       <c r="F128" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B129" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C129">
         <v>1.2769246999999999</v>
@@ -10184,7 +7583,7 @@
     </row>
     <row r="131" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B131" t="s">
-        <v>254</v>
+        <v>190</v>
       </c>
     </row>
     <row r="132" spans="2:6" x14ac:dyDescent="0.2">
@@ -10192,18 +7591,18 @@
         <v>2.5</v>
       </c>
       <c r="D132" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E132">
         <v>97.5</v>
       </c>
       <c r="F132" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B133" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C133">
         <v>82.437348482000004</v>
@@ -10220,7 +7619,7 @@
     </row>
     <row r="135" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B135" t="s">
-        <v>255</v>
+        <v>191</v>
       </c>
     </row>
     <row r="136" spans="2:6" x14ac:dyDescent="0.2">
@@ -10228,18 +7627,18 @@
         <v>2.5</v>
       </c>
       <c r="D136" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E136">
         <v>97.5</v>
       </c>
       <c r="F136" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B137" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C137" s="1">
         <v>8.8151259999999997E-8</v>
@@ -10256,7 +7655,7 @@
     </row>
     <row r="139" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B139" t="s">
-        <v>256</v>
+        <v>192</v>
       </c>
     </row>
     <row r="140" spans="2:6" x14ac:dyDescent="0.2">
@@ -10264,18 +7663,18 @@
         <v>2.5</v>
       </c>
       <c r="D140" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E140">
         <v>97.5</v>
       </c>
       <c r="F140" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B141" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C141">
         <v>0.23212240000000001</v>
@@ -10292,7 +7691,7 @@
     </row>
     <row r="143" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B143" t="s">
-        <v>257</v>
+        <v>193</v>
       </c>
     </row>
     <row r="144" spans="2:6" x14ac:dyDescent="0.2">
@@ -10300,18 +7699,18 @@
         <v>2.5</v>
       </c>
       <c r="D144" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E144">
         <v>97.5</v>
       </c>
       <c r="F144" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B145" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C145">
         <v>0.42055577999999999</v>
@@ -10328,7 +7727,7 @@
     </row>
     <row r="147" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B147" t="s">
-        <v>258</v>
+        <v>194</v>
       </c>
     </row>
     <row r="148" spans="2:6" x14ac:dyDescent="0.2">
@@ -10336,18 +7735,18 @@
         <v>2.5</v>
       </c>
       <c r="D148" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E148">
         <v>97.5</v>
       </c>
       <c r="F148" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B149" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C149">
         <v>0.67635305300000004</v>
@@ -10364,7 +7763,7 @@
     </row>
     <row r="151" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B151" t="s">
-        <v>259</v>
+        <v>195</v>
       </c>
     </row>
     <row r="152" spans="2:6" x14ac:dyDescent="0.2">
@@ -10372,18 +7771,18 @@
         <v>2.5</v>
       </c>
       <c r="D152" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E152">
         <v>97.5</v>
       </c>
       <c r="F152" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B153" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C153">
         <v>3.7716710000000001E-2</v>
@@ -10400,7 +7799,7 @@
     </row>
     <row r="155" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B155" t="s">
-        <v>260</v>
+        <v>196</v>
       </c>
     </row>
     <row r="156" spans="2:6" x14ac:dyDescent="0.2">
@@ -10408,18 +7807,18 @@
         <v>2.5</v>
       </c>
       <c r="D156" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E156">
         <v>97.5</v>
       </c>
       <c r="F156" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B157" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C157">
         <v>7.2032029030000002</v>
@@ -10436,7 +7835,7 @@
     </row>
     <row r="159" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B159" t="s">
-        <v>261</v>
+        <v>197</v>
       </c>
     </row>
     <row r="160" spans="2:6" x14ac:dyDescent="0.2">
@@ -10444,18 +7843,18 @@
         <v>2.5</v>
       </c>
       <c r="D160" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E160">
         <v>97.5</v>
       </c>
       <c r="F160" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B161" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C161" s="1">
         <v>4.4154670000000002E-3</v>
@@ -10472,7 +7871,7 @@
     </row>
     <row r="163" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B163" t="s">
-        <v>262</v>
+        <v>198</v>
       </c>
     </row>
     <row r="164" spans="2:6" x14ac:dyDescent="0.2">
@@ -10480,18 +7879,18 @@
         <v>2.5</v>
       </c>
       <c r="D164" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E164">
         <v>97.5</v>
       </c>
       <c r="F164" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B165" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C165" s="1">
         <v>5.4586859999999999E-8</v>
@@ -10508,7 +7907,7 @@
     </row>
     <row r="167" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B167" t="s">
-        <v>263</v>
+        <v>199</v>
       </c>
     </row>
     <row r="168" spans="2:6" x14ac:dyDescent="0.2">
@@ -10516,18 +7915,18 @@
         <v>2.5</v>
       </c>
       <c r="D168" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E168">
         <v>97.5</v>
       </c>
       <c r="F168" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B169" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C169" s="1">
         <v>1.395091E-6</v>
@@ -10544,7 +7943,7 @@
     </row>
     <row r="171" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B171" t="s">
-        <v>264</v>
+        <v>200</v>
       </c>
     </row>
     <row r="172" spans="2:6" x14ac:dyDescent="0.2">
@@ -10552,18 +7951,18 @@
         <v>2.5</v>
       </c>
       <c r="D172" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E172">
         <v>97.5</v>
       </c>
       <c r="F172" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B173" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C173">
         <v>0.87776849999999995</v>
@@ -10580,7 +7979,7 @@
     </row>
     <row r="175" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B175" t="s">
-        <v>265</v>
+        <v>201</v>
       </c>
     </row>
     <row r="176" spans="2:6" x14ac:dyDescent="0.2">
@@ -10588,18 +7987,18 @@
         <v>2.5</v>
       </c>
       <c r="D176" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E176">
         <v>97.5</v>
       </c>
       <c r="F176" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B177" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C177">
         <v>0.43193758999999998</v>
@@ -10616,7 +8015,7 @@
     </row>
     <row r="179" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B179" t="s">
-        <v>266</v>
+        <v>202</v>
       </c>
     </row>
     <row r="180" spans="2:6" x14ac:dyDescent="0.2">
@@ -10624,18 +8023,18 @@
         <v>2.5</v>
       </c>
       <c r="D180" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E180">
         <v>97.5</v>
       </c>
       <c r="F180" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B181" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C181">
         <v>0.55864829999999999</v>
@@ -10652,7 +8051,7 @@
     </row>
     <row r="183" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B183" t="s">
-        <v>267</v>
+        <v>203</v>
       </c>
     </row>
     <row r="184" spans="2:6" x14ac:dyDescent="0.2">
@@ -10660,18 +8059,18 @@
         <v>2.5</v>
       </c>
       <c r="D184" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E184">
         <v>97.5</v>
       </c>
       <c r="F184" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B185" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C185">
         <v>0.14656279999999999</v>
@@ -10688,7 +8087,7 @@
     </row>
     <row r="187" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B187" t="s">
-        <v>268</v>
+        <v>204</v>
       </c>
     </row>
     <row r="188" spans="2:6" x14ac:dyDescent="0.2">
@@ -10696,18 +8095,18 @@
         <v>2.5</v>
       </c>
       <c r="D188" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E188">
         <v>97.5</v>
       </c>
       <c r="F188" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B189" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C189">
         <v>1.7379988</v>
@@ -10724,7 +8123,7 @@
     </row>
     <row r="191" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B191" t="s">
-        <v>269</v>
+        <v>205</v>
       </c>
     </row>
     <row r="192" spans="2:6" x14ac:dyDescent="0.2">
@@ -10732,18 +8131,18 @@
         <v>2.5</v>
       </c>
       <c r="D192" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E192">
         <v>97.5</v>
       </c>
       <c r="F192" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B193" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C193" s="1">
         <v>1.317613E-8</v>
@@ -10760,7 +8159,7 @@
     </row>
     <row r="195" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B195" t="s">
-        <v>270</v>
+        <v>206</v>
       </c>
     </row>
     <row r="196" spans="2:6" x14ac:dyDescent="0.2">
@@ -10768,18 +8167,18 @@
         <v>2.5</v>
       </c>
       <c r="D196" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E196">
         <v>97.5</v>
       </c>
       <c r="F196" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B197" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C197">
         <v>11.08715947</v>
@@ -10796,7 +8195,7 @@
     </row>
     <row r="199" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B199" t="s">
-        <v>271</v>
+        <v>207</v>
       </c>
     </row>
     <row r="200" spans="2:6" x14ac:dyDescent="0.2">
@@ -10804,18 +8203,18 @@
         <v>2.5</v>
       </c>
       <c r="D200" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E200">
         <v>97.5</v>
       </c>
       <c r="F200" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B201" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C201">
         <v>2.0613489999999999</v>
@@ -10832,7 +8231,7 @@
     </row>
     <row r="203" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B203" t="s">
-        <v>272</v>
+        <v>208</v>
       </c>
     </row>
     <row r="204" spans="2:6" x14ac:dyDescent="0.2">
@@ -10840,18 +8239,18 @@
         <v>2.5</v>
       </c>
       <c r="D204" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E204">
         <v>97.5</v>
       </c>
       <c r="F204" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B205" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C205">
         <v>5.9108180000000003E-2</v>
@@ -10868,7 +8267,7 @@
     </row>
     <row r="207" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B207" t="s">
-        <v>273</v>
+        <v>209</v>
       </c>
     </row>
     <row r="208" spans="2:6" x14ac:dyDescent="0.2">
@@ -10876,18 +8275,18 @@
         <v>2.5</v>
       </c>
       <c r="D208" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E208">
         <v>97.5</v>
       </c>
       <c r="F208" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B209" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C209">
         <v>0.54003650000000003</v>
@@ -10904,7 +8303,7 @@
     </row>
     <row r="211" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B211" t="s">
-        <v>274</v>
+        <v>210</v>
       </c>
     </row>
     <row r="212" spans="2:6" x14ac:dyDescent="0.2">
@@ -10912,18 +8311,18 @@
         <v>2.5</v>
       </c>
       <c r="D212" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E212">
         <v>97.5</v>
       </c>
       <c r="F212" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B213" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C213">
         <v>0.63386480000000001</v>
@@ -10940,7 +8339,7 @@
     </row>
     <row r="215" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B215" t="s">
-        <v>275</v>
+        <v>211</v>
       </c>
     </row>
     <row r="216" spans="2:6" x14ac:dyDescent="0.2">
@@ -10948,18 +8347,18 @@
         <v>2.5</v>
       </c>
       <c r="D216" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E216">
         <v>97.5</v>
       </c>
       <c r="F216" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B217" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C217">
         <v>6.4467369999999996E-2</v>
@@ -10976,7 +8375,7 @@
     </row>
     <row r="219" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B219" t="s">
-        <v>276</v>
+        <v>212</v>
       </c>
     </row>
     <row r="220" spans="2:6" x14ac:dyDescent="0.2">
@@ -10984,18 +8383,18 @@
         <v>2.5</v>
       </c>
       <c r="D220" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E220">
         <v>97.5</v>
       </c>
       <c r="F220" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B221" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C221" s="1">
         <v>4.392066E-3</v>
@@ -11012,7 +8411,7 @@
     </row>
     <row r="223" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B223" t="s">
-        <v>277</v>
+        <v>213</v>
       </c>
     </row>
     <row r="224" spans="2:6" x14ac:dyDescent="0.2">
@@ -11020,18 +8419,18 @@
         <v>2.5</v>
       </c>
       <c r="D224" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E224">
         <v>97.5</v>
       </c>
       <c r="F224" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B225" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C225">
         <v>0.65757435850000001</v>
@@ -11048,7 +8447,7 @@
     </row>
     <row r="227" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B227" t="s">
-        <v>278</v>
+        <v>214</v>
       </c>
     </row>
     <row r="228" spans="2:6" x14ac:dyDescent="0.2">
@@ -11056,18 +8455,18 @@
         <v>2.5</v>
       </c>
       <c r="D228" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E228">
         <v>97.5</v>
       </c>
       <c r="F228" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B229" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C229">
         <v>0.60616219999999998</v>
@@ -11084,7 +8483,7 @@
     </row>
     <row r="231" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B231" t="s">
-        <v>279</v>
+        <v>215</v>
       </c>
     </row>
     <row r="232" spans="2:6" x14ac:dyDescent="0.2">
@@ -11092,18 +8491,18 @@
         <v>2.5</v>
       </c>
       <c r="D232" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E232">
         <v>97.5</v>
       </c>
       <c r="F232" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B233" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C233">
         <v>0.61615732999999995</v>
@@ -11120,7 +8519,7 @@
     </row>
     <row r="235" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B235" t="s">
-        <v>280</v>
+        <v>216</v>
       </c>
     </row>
     <row r="236" spans="2:6" x14ac:dyDescent="0.2">
@@ -11128,18 +8527,18 @@
         <v>2.5</v>
       </c>
       <c r="D236" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E236">
         <v>97.5</v>
       </c>
       <c r="F236" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B237" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C237">
         <v>0.55630789999999997</v>
@@ -11156,7 +8555,7 @@
     </row>
     <row r="239" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B239" t="s">
-        <v>281</v>
+        <v>217</v>
       </c>
     </row>
     <row r="240" spans="2:6" x14ac:dyDescent="0.2">
@@ -11164,18 +8563,18 @@
         <v>2.5</v>
       </c>
       <c r="D240" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E240">
         <v>97.5</v>
       </c>
       <c r="F240" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B241" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C241">
         <v>0.56046399999999996</v>
@@ -11192,7 +8591,7 @@
     </row>
     <row r="243" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B243" t="s">
-        <v>282</v>
+        <v>218</v>
       </c>
     </row>
     <row r="244" spans="2:6" x14ac:dyDescent="0.2">
@@ -11200,18 +8599,18 @@
         <v>2.5</v>
       </c>
       <c r="D244" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E244">
         <v>97.5</v>
       </c>
       <c r="F244" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B245" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C245">
         <v>0.4693792</v>
@@ -11238,7 +8637,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{326BAA6A-DE0B-1D4A-B092-DC3C9FB87BD8}">
   <dimension ref="B1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
@@ -11249,21 +8648,21 @@
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C1" s="2" t="s">
-        <v>124</v>
+        <v>60</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>125</v>
+        <v>61</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>126</v>
+        <v>62</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>127</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
-        <v>290</v>
+        <v>226</v>
       </c>
       <c r="C2" s="1">
         <v>1.057529E-6</v>
@@ -11280,7 +8679,7 @@
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
-        <v>292</v>
+        <v>228</v>
       </c>
       <c r="C3">
         <v>1.0000374999999999</v>
@@ -11297,7 +8696,7 @@
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
-        <v>293</v>
+        <v>229</v>
       </c>
       <c r="C4">
         <v>1.0000547</v>
@@ -11314,7 +8713,7 @@
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
-        <v>295</v>
+        <v>231</v>
       </c>
       <c r="C5">
         <v>1.0061484999999999</v>
@@ -11331,7 +8730,7 @@
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
-        <v>297</v>
+        <v>233</v>
       </c>
       <c r="C6">
         <v>1.0063555</v>
@@ -11348,7 +8747,7 @@
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
-        <v>301</v>
+        <v>237</v>
       </c>
       <c r="C7">
         <v>5.918988E-2</v>
@@ -11365,7 +8764,7 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
-        <v>304</v>
+        <v>240</v>
       </c>
       <c r="C8" s="1">
         <v>3.4609930000000001E-8</v>
@@ -11382,7 +8781,7 @@
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
-        <v>312</v>
+        <v>248</v>
       </c>
       <c r="C9" s="1">
         <v>7.1484860000000003E-7</v>
@@ -11399,7 +8798,7 @@
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
-        <v>318</v>
+        <v>254</v>
       </c>
       <c r="C10" s="1">
         <v>167300200</v>
